--- a/data/processedData/LC823_Merged.xlsx
+++ b/data/processedData/LC823_Merged.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G824"/>
+  <dimension ref="A1:G823"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13517,549 +13517,549 @@
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>faint</t>
+          <t>falling</t>
         </is>
       </c>
       <c r="C524" t="n">
-        <v>2.33333333333333</v>
+        <v>3</v>
       </c>
       <c r="D524" t="n">
-        <v>1.42857142857143</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="E524" t="n">
-        <v>0.619047619047619</v>
+        <v>1.80952380952381</v>
       </c>
       <c r="F524" t="n">
-        <v>1.85714285714286</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="G524" t="n">
-        <v>2.76190476190476</v>
+        <v>4.85714285714286</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>falling</t>
+          <t>fat</t>
         </is>
       </c>
       <c r="C525" t="n">
-        <v>3</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="D525" t="n">
-        <v>0.19047619047619</v>
+        <v>1.55</v>
       </c>
       <c r="E525" t="n">
-        <v>1.80952380952381</v>
+        <v>3.76190476190476</v>
       </c>
       <c r="F525" t="n">
-        <v>0.19047619047619</v>
+        <v>0.952380952380952</v>
       </c>
       <c r="G525" t="n">
-        <v>4.85714285714286</v>
+        <v>4.61904761904762</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>fat</t>
+          <t>fatty</t>
         </is>
       </c>
       <c r="C526" t="n">
-        <v>0.380952380952381</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="D526" t="n">
-        <v>1.55</v>
+        <v>4.38095238095238</v>
       </c>
       <c r="E526" t="n">
-        <v>3.76190476190476</v>
+        <v>1.85714285714286</v>
       </c>
       <c r="F526" t="n">
-        <v>0.952380952380952</v>
+        <v>1.71428571428571</v>
       </c>
       <c r="G526" t="n">
-        <v>4.61904761904762</v>
+        <v>3.66666666666667</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>fatty</t>
+          <t>feverish</t>
         </is>
       </c>
       <c r="C527" t="n">
-        <v>0.333333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="D527" t="n">
-        <v>4.38095238095238</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="E527" t="n">
-        <v>1.85714285714286</v>
+        <v>3.19047619047619</v>
       </c>
       <c r="F527" t="n">
-        <v>1.71428571428571</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="G527" t="n">
-        <v>3.66666666666667</v>
+        <v>2.85714285714286</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>feverish</t>
+          <t>filthy</t>
         </is>
       </c>
       <c r="C528" t="n">
-        <v>0.666666666666667</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="D528" t="n">
         <v>0.238095238095238</v>
       </c>
       <c r="E528" t="n">
-        <v>3.19047619047619</v>
+        <v>2</v>
       </c>
       <c r="F528" t="n">
-        <v>0.285714285714286</v>
+        <v>2.42857142857143</v>
       </c>
       <c r="G528" t="n">
-        <v>2.85714285714286</v>
+        <v>4.85714285714286</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>filthy</t>
+          <t>fishy</t>
         </is>
       </c>
       <c r="C529" t="n">
-        <v>0.380952380952381</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="D529" t="n">
-        <v>0.238095238095238</v>
+        <v>4.47619047619048</v>
       </c>
       <c r="E529" t="n">
-        <v>2</v>
+        <v>0.952380952380952</v>
       </c>
       <c r="F529" t="n">
-        <v>2.42857142857143</v>
+        <v>4.57142857142857</v>
       </c>
       <c r="G529" t="n">
-        <v>4.85714285714286</v>
+        <v>3.38095238095238</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>fishy</t>
+          <t>flaky</t>
         </is>
       </c>
       <c r="C530" t="n">
-        <v>0.285714285714286</v>
+        <v>1.19047619047619</v>
       </c>
       <c r="D530" t="n">
-        <v>4.47619047619048</v>
+        <v>1.71428571428571</v>
       </c>
       <c r="E530" t="n">
-        <v>0.952380952380952</v>
+        <v>3.95238095238095</v>
       </c>
       <c r="F530" t="n">
-        <v>4.57142857142857</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="G530" t="n">
-        <v>3.38095238095238</v>
+        <v>3.76190476190476</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>flaky</t>
+          <t>flat</t>
         </is>
       </c>
       <c r="C531" t="n">
-        <v>1.19047619047619</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="D531" t="n">
-        <v>1.71428571428571</v>
+        <v>0.5238095238095239</v>
       </c>
       <c r="E531" t="n">
-        <v>3.95238095238095</v>
+        <v>4.14285714285714</v>
       </c>
       <c r="F531" t="n">
-        <v>0.333333333333333</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="G531" t="n">
-        <v>3.76190476190476</v>
+        <v>4.52380952380952</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>flat</t>
+          <t>flavoursome</t>
         </is>
       </c>
       <c r="C532" t="n">
-        <v>0.857142857142857</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="D532" t="n">
-        <v>0.5238095238095239</v>
+        <v>4.85714285714286</v>
       </c>
       <c r="E532" t="n">
-        <v>4.14285714285714</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="F532" t="n">
-        <v>0.0476190476190476</v>
+        <v>4.23809523809524</v>
       </c>
       <c r="G532" t="n">
-        <v>4.52380952380952</v>
+        <v>1.9047619047619</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>flavoursome</t>
+          <t>fleshy</t>
         </is>
       </c>
       <c r="C533" t="n">
-        <v>0.19047619047619</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="D533" t="n">
-        <v>4.85714285714286</v>
+        <v>2.15</v>
       </c>
       <c r="E533" t="n">
-        <v>0.428571428571429</v>
+        <v>3.57142857142857</v>
       </c>
       <c r="F533" t="n">
-        <v>4.23809523809524</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="G533" t="n">
-        <v>1.9047619047619</v>
+        <v>4.28571428571429</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>fleshy</t>
+          <t>flickering</t>
         </is>
       </c>
       <c r="C534" t="n">
+        <v>1.28571428571429</v>
+      </c>
+      <c r="D534" t="n">
         <v>0.09523809523809521</v>
       </c>
-      <c r="D534" t="n">
-        <v>2.15</v>
-      </c>
       <c r="E534" t="n">
-        <v>3.57142857142857</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="F534" t="n">
-        <v>0.904761904761905</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="G534" t="n">
-        <v>4.28571428571429</v>
+        <v>4.76190476190476</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>flickering</t>
+          <t>floppy</t>
         </is>
       </c>
       <c r="C535" t="n">
-        <v>1.28571428571429</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="D535" t="n">
-        <v>0.09523809523809521</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="E535" t="n">
-        <v>0.571428571428571</v>
+        <v>4.19047619047619</v>
       </c>
       <c r="F535" t="n">
-        <v>0.09523809523809521</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="G535" t="n">
-        <v>4.76190476190476</v>
+        <v>4.23809523809524</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>floppy</t>
+          <t>floral</t>
         </is>
       </c>
       <c r="C536" t="n">
         <v>0.142857142857143</v>
       </c>
       <c r="D536" t="n">
-        <v>0.238095238095238</v>
+        <v>1.35</v>
       </c>
       <c r="E536" t="n">
-        <v>4.19047619047619</v>
+        <v>1.52380952380952</v>
       </c>
       <c r="F536" t="n">
-        <v>0.142857142857143</v>
+        <v>3.80952380952381</v>
       </c>
       <c r="G536" t="n">
-        <v>4.23809523809524</v>
+        <v>4.80952380952381</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>floral</t>
+          <t>flowery</t>
         </is>
       </c>
       <c r="C537" t="n">
-        <v>0.142857142857143</v>
+        <v>0</v>
       </c>
       <c r="D537" t="n">
-        <v>1.35</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E537" t="n">
-        <v>1.52380952380952</v>
+        <v>1.85714285714286</v>
       </c>
       <c r="F537" t="n">
-        <v>3.80952380952381</v>
+        <v>3.9047619047619</v>
       </c>
       <c r="G537" t="n">
-        <v>4.80952380952381</v>
+        <v>4.42857142857143</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>flowery</t>
+          <t>fluffy</t>
         </is>
       </c>
       <c r="C538" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="D538" t="n">
-        <v>0.571428571428571</v>
+        <v>1.0952380952381</v>
       </c>
       <c r="E538" t="n">
-        <v>1.85714285714286</v>
+        <v>4.57142857142857</v>
       </c>
       <c r="F538" t="n">
-        <v>3.9047619047619</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="G538" t="n">
-        <v>4.42857142857143</v>
+        <v>4.04761904761905</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>fluffy</t>
+          <t>foamy</t>
         </is>
       </c>
       <c r="C539" t="n">
-        <v>0.333333333333333</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="D539" t="n">
-        <v>1.0952380952381</v>
+        <v>1.19047619047619</v>
       </c>
       <c r="E539" t="n">
-        <v>4.57142857142857</v>
+        <v>3.66666666666667</v>
       </c>
       <c r="F539" t="n">
-        <v>0.333333333333333</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="G539" t="n">
-        <v>4.04761904761905</v>
+        <v>4.52380952380952</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>foamy</t>
+          <t>foetid</t>
         </is>
       </c>
       <c r="C540" t="n">
-        <v>0.285714285714286</v>
+        <v>0</v>
       </c>
       <c r="D540" t="n">
-        <v>1.19047619047619</v>
+        <v>2.25</v>
       </c>
       <c r="E540" t="n">
-        <v>3.66666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="F540" t="n">
-        <v>0.428571428571429</v>
+        <v>2.25</v>
       </c>
       <c r="G540" t="n">
-        <v>4.52380952380952</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>foetid</t>
+          <t>foggy</t>
         </is>
       </c>
       <c r="C541" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="D541" t="n">
-        <v>2.25</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="E541" t="n">
-        <v>1.25</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="F541" t="n">
-        <v>2.25</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="G541" t="n">
-        <v>2.25</v>
+        <v>4.76190476190476</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>foggy</t>
+          <t>forked</t>
         </is>
       </c>
       <c r="C542" t="n">
-        <v>0.333333333333333</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="D542" t="n">
+        <v>0.238095238095238</v>
+      </c>
+      <c r="E542" t="n">
+        <v>3.42857142857143</v>
+      </c>
+      <c r="F542" t="n">
         <v>0.09523809523809521</v>
       </c>
-      <c r="E542" t="n">
-        <v>0.80952380952381</v>
-      </c>
-      <c r="F542" t="n">
-        <v>0.476190476190476</v>
-      </c>
       <c r="G542" t="n">
-        <v>4.76190476190476</v>
+        <v>4.04761904761905</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>forked</t>
+          <t>fragrant</t>
         </is>
       </c>
       <c r="C543" t="n">
-        <v>0.285714285714286</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="D543" t="n">
+        <v>2.76190476190476</v>
+      </c>
+      <c r="E543" t="n">
         <v>0.238095238095238</v>
       </c>
-      <c r="E543" t="n">
-        <v>3.42857142857143</v>
-      </c>
       <c r="F543" t="n">
-        <v>0.09523809523809521</v>
+        <v>5</v>
       </c>
       <c r="G543" t="n">
-        <v>4.04761904761905</v>
+        <v>0.952380952380952</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>fragrant</t>
+          <t>freezing</t>
         </is>
       </c>
       <c r="C544" t="n">
-        <v>0.238095238095238</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="D544" t="n">
-        <v>2.76190476190476</v>
+        <v>2.0952380952381</v>
       </c>
       <c r="E544" t="n">
-        <v>0.238095238095238</v>
+        <v>4.76190476190476</v>
       </c>
       <c r="F544" t="n">
-        <v>5</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="G544" t="n">
-        <v>0.952380952380952</v>
+        <v>3.95238095238095</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>freezing</t>
+          <t>fresh</t>
         </is>
       </c>
       <c r="C545" t="n">
-        <v>0.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="D545" t="n">
-        <v>2.0952380952381</v>
+        <v>4.09523809523809</v>
       </c>
       <c r="E545" t="n">
-        <v>4.76190476190476</v>
+        <v>2.42857142857143</v>
       </c>
       <c r="F545" t="n">
-        <v>0.619047619047619</v>
+        <v>4.52380952380952</v>
       </c>
       <c r="G545" t="n">
         <v>3.95238095238095</v>
@@ -14067,2399 +14067,2399 @@
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>fresh</t>
+          <t>frosty</t>
         </is>
       </c>
       <c r="C546" t="n">
-        <v>1</v>
+        <v>1.04761904761905</v>
       </c>
       <c r="D546" t="n">
-        <v>4.09523809523809</v>
+        <v>0.952380952380952</v>
       </c>
       <c r="E546" t="n">
-        <v>2.42857142857143</v>
+        <v>3.76190476190476</v>
       </c>
       <c r="F546" t="n">
-        <v>4.52380952380952</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="G546" t="n">
-        <v>3.95238095238095</v>
+        <v>4.04761904761905</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>frosty</t>
+          <t>fruity</t>
         </is>
       </c>
       <c r="C547" t="n">
-        <v>1.04761904761905</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="D547" t="n">
-        <v>0.952380952380952</v>
+        <v>4.76190476190476</v>
       </c>
       <c r="E547" t="n">
-        <v>3.76190476190476</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="F547" t="n">
-        <v>0.857142857142857</v>
+        <v>4.42857142857143</v>
       </c>
       <c r="G547" t="n">
-        <v>4.04761904761905</v>
+        <v>3.23809523809524</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>fruity</t>
+          <t>fuzzy</t>
         </is>
       </c>
       <c r="C548" t="n">
-        <v>0.238095238095238</v>
+        <v>1.57142857142857</v>
       </c>
       <c r="D548" t="n">
-        <v>4.76190476190476</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="E548" t="n">
-        <v>0.904761904761905</v>
+        <v>3.04761904761905</v>
       </c>
       <c r="F548" t="n">
-        <v>4.42857142857143</v>
+        <v>0</v>
       </c>
       <c r="G548" t="n">
-        <v>3.23809523809524</v>
+        <v>3.66666666666667</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>fuzzy</t>
+          <t>gamy</t>
         </is>
       </c>
       <c r="C549" t="n">
-        <v>1.57142857142857</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="D549" t="n">
-        <v>0.285714285714286</v>
+        <v>2.21428571428571</v>
       </c>
       <c r="E549" t="n">
-        <v>3.04761904761905</v>
+        <v>2.78571428571429</v>
       </c>
       <c r="F549" t="n">
-        <v>0</v>
+        <v>2.07142857142857</v>
       </c>
       <c r="G549" t="n">
-        <v>3.66666666666667</v>
+        <v>2.78571428571429</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>gamy</t>
+          <t>garlicky</t>
         </is>
       </c>
       <c r="C550" t="n">
-        <v>0.428571428571429</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="D550" t="n">
-        <v>2.21428571428571</v>
+        <v>4.95238095238095</v>
       </c>
       <c r="E550" t="n">
-        <v>2.78571428571429</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="F550" t="n">
-        <v>2.07142857142857</v>
+        <v>4.42857142857143</v>
       </c>
       <c r="G550" t="n">
-        <v>2.78571428571429</v>
+        <v>2.14285714285714</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>garlicky</t>
+          <t>gigantic</t>
         </is>
       </c>
       <c r="C551" t="n">
+        <v>1.38095238095238</v>
+      </c>
+      <c r="D551" t="n">
         <v>0.142857142857143</v>
       </c>
-      <c r="D551" t="n">
-        <v>4.95238095238095</v>
-      </c>
       <c r="E551" t="n">
-        <v>0.142857142857143</v>
+        <v>3.28571428571429</v>
       </c>
       <c r="F551" t="n">
-        <v>4.42857142857143</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="G551" t="n">
-        <v>2.14285714285714</v>
+        <v>4.71428571428571</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>gigantic</t>
+          <t>giggling</t>
         </is>
       </c>
       <c r="C552" t="n">
-        <v>1.38095238095238</v>
+        <v>4.71428571428571</v>
       </c>
       <c r="D552" t="n">
-        <v>0.142857142857143</v>
+        <v>0</v>
       </c>
       <c r="E552" t="n">
-        <v>3.28571428571429</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="F552" t="n">
-        <v>0.19047619047619</v>
+        <v>0</v>
       </c>
       <c r="G552" t="n">
-        <v>4.71428571428571</v>
+        <v>3.95238095238095</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>giggling</t>
+          <t>glamorous</t>
         </is>
       </c>
       <c r="C553" t="n">
-        <v>4.71428571428571</v>
+        <v>1.71428571428571</v>
       </c>
       <c r="D553" t="n">
-        <v>0</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="E553" t="n">
-        <v>0.571428571428571</v>
+        <v>1.57142857142857</v>
       </c>
       <c r="F553" t="n">
-        <v>0</v>
+        <v>1.23809523809524</v>
       </c>
       <c r="G553" t="n">
-        <v>3.95238095238095</v>
+        <v>4.66666666666667</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>glamorous</t>
+          <t>gleaming</t>
         </is>
       </c>
       <c r="C554" t="n">
-        <v>1.71428571428571</v>
+        <v>0.5238095238095239</v>
       </c>
       <c r="D554" t="n">
         <v>0.238095238095238</v>
       </c>
       <c r="E554" t="n">
-        <v>1.57142857142857</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="F554" t="n">
-        <v>1.23809523809524</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="G554" t="n">
-        <v>4.66666666666667</v>
+        <v>4.57142857142857</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>gleaming</t>
+          <t>glistening</t>
         </is>
       </c>
       <c r="C555" t="n">
-        <v>0.5238095238095239</v>
+        <v>0.952380952380952</v>
       </c>
       <c r="D555" t="n">
-        <v>0.238095238095238</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="E555" t="n">
-        <v>0.761904761904762</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="F555" t="n">
-        <v>0.619047619047619</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="G555" t="n">
-        <v>4.57142857142857</v>
+        <v>4.38095238095238</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>glistening</t>
+          <t>glittery</t>
         </is>
       </c>
       <c r="C556" t="n">
-        <v>0.952380952380952</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="D556" t="n">
-        <v>0.142857142857143</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="E556" t="n">
-        <v>0.619047619047619</v>
+        <v>2</v>
       </c>
       <c r="F556" t="n">
-        <v>0.19047619047619</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="G556" t="n">
-        <v>4.38095238095238</v>
+        <v>4.66666666666667</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>glittery</t>
+          <t>globular</t>
         </is>
       </c>
       <c r="C557" t="n">
-        <v>0.761904761904762</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="D557" t="n">
-        <v>0.0476190476190476</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="E557" t="n">
-        <v>2</v>
+        <v>3.16666666666667</v>
       </c>
       <c r="F557" t="n">
-        <v>0.09523809523809521</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="G557" t="n">
-        <v>4.66666666666667</v>
+        <v>4.44444444444444</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>globular</t>
+          <t>glossy</t>
         </is>
       </c>
       <c r="C558" t="n">
-        <v>0.777777777777778</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="D558" t="n">
-        <v>0.888888888888889</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="E558" t="n">
-        <v>3.16666666666667</v>
+        <v>3.76190476190476</v>
       </c>
       <c r="F558" t="n">
         <v>0.333333333333333</v>
       </c>
       <c r="G558" t="n">
-        <v>4.44444444444444</v>
+        <v>4.80952380952381</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>glossy</t>
+          <t>glowing</t>
         </is>
       </c>
       <c r="C559" t="n">
-        <v>0.380952380952381</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="D559" t="n">
-        <v>0.476190476190476</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="E559" t="n">
-        <v>3.76190476190476</v>
+        <v>0.5238095238095239</v>
       </c>
       <c r="F559" t="n">
-        <v>0.333333333333333</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="G559" t="n">
-        <v>4.80952380952381</v>
+        <v>4.57142857142857</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>glowing</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="C560" t="n">
-        <v>0.428571428571429</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="D560" t="n">
         <v>0.142857142857143</v>
       </c>
       <c r="E560" t="n">
-        <v>0.5238095238095239</v>
+        <v>1.04761904761905</v>
       </c>
       <c r="F560" t="n">
-        <v>0.285714285714286</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="G560" t="n">
-        <v>4.57142857142857</v>
+        <v>4.52380952380952</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>gooey</t>
         </is>
       </c>
       <c r="C561" t="n">
-        <v>0.142857142857143</v>
+        <v>1.57142857142857</v>
       </c>
       <c r="D561" t="n">
-        <v>0.142857142857143</v>
+        <v>2.61904761904762</v>
       </c>
       <c r="E561" t="n">
-        <v>1.04761904761905</v>
+        <v>4.66666666666667</v>
       </c>
       <c r="F561" t="n">
-        <v>0.238095238095238</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="G561" t="n">
-        <v>4.52380952380952</v>
+        <v>4.23809523809524</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>gooey</t>
+          <t>gorgeous</t>
         </is>
       </c>
       <c r="C562" t="n">
-        <v>1.57142857142857</v>
+        <v>1.47619047619048</v>
       </c>
       <c r="D562" t="n">
-        <v>2.61904761904762</v>
+        <v>2.52380952380952</v>
       </c>
       <c r="E562" t="n">
-        <v>4.66666666666667</v>
+        <v>2.19047619047619</v>
       </c>
       <c r="F562" t="n">
-        <v>0.714285714285714</v>
+        <v>2.85714285714286</v>
       </c>
       <c r="G562" t="n">
-        <v>4.23809523809524</v>
+        <v>4.90476190476191</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>gorgeous</t>
+          <t>grainy</t>
         </is>
       </c>
       <c r="C563" t="n">
-        <v>1.47619047619048</v>
+        <v>1.23809523809524</v>
       </c>
       <c r="D563" t="n">
-        <v>2.52380952380952</v>
+        <v>2.33333333333333</v>
       </c>
       <c r="E563" t="n">
-        <v>2.19047619047619</v>
+        <v>4.19047619047619</v>
       </c>
       <c r="F563" t="n">
-        <v>2.85714285714286</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="G563" t="n">
-        <v>4.90476190476191</v>
+        <v>3.42857142857143</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>grainy</t>
+          <t>grassy</t>
         </is>
       </c>
       <c r="C564" t="n">
-        <v>1.23809523809524</v>
+        <v>0.2</v>
       </c>
       <c r="D564" t="n">
-        <v>2.33333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E564" t="n">
-        <v>4.19047619047619</v>
+        <v>3.23809523809524</v>
       </c>
       <c r="F564" t="n">
-        <v>0.476190476190476</v>
+        <v>3</v>
       </c>
       <c r="G564" t="n">
-        <v>3.42857142857143</v>
+        <v>4.61904761904762</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>grassy</t>
+          <t>greasy</t>
         </is>
       </c>
       <c r="C565" t="n">
-        <v>0.2</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="D565" t="n">
-        <v>0.333333333333333</v>
+        <v>3.80952380952381</v>
       </c>
       <c r="E565" t="n">
-        <v>3.23809523809524</v>
+        <v>3.95238095238095</v>
       </c>
       <c r="F565" t="n">
-        <v>3</v>
+        <v>2.33333333333333</v>
       </c>
       <c r="G565" t="n">
-        <v>4.61904761904762</v>
+        <v>3.76190476190476</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>greasy</t>
+          <t>green</t>
         </is>
       </c>
       <c r="C566" t="n">
-        <v>0.19047619047619</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="D566" t="n">
-        <v>3.80952380952381</v>
+        <v>0.5238095238095239</v>
       </c>
       <c r="E566" t="n">
-        <v>3.95238095238095</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="F566" t="n">
-        <v>2.33333333333333</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="G566" t="n">
-        <v>3.76190476190476</v>
+        <v>4.95238095238095</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>grey</t>
         </is>
       </c>
       <c r="C567" t="n">
-        <v>0.238095238095238</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="D567" t="n">
-        <v>0.5238095238095239</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="E567" t="n">
-        <v>0.380952380952381</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="F567" t="n">
-        <v>0.714285714285714</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="G567" t="n">
-        <v>4.95238095238095</v>
+        <v>4.76190476190476</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>grey</t>
+          <t>gritty</t>
         </is>
       </c>
       <c r="C568" t="n">
-        <v>0.380952380952381</v>
+        <v>1.85714285714286</v>
       </c>
       <c r="D568" t="n">
-        <v>0.09523809523809521</v>
+        <v>1.85714285714286</v>
       </c>
       <c r="E568" t="n">
-        <v>0.0476190476190476</v>
+        <v>4.33333333333333</v>
       </c>
       <c r="F568" t="n">
-        <v>0.285714285714286</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="G568" t="n">
-        <v>4.76190476190476</v>
+        <v>3.47619047619048</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>gritty</t>
+          <t>groaning</t>
         </is>
       </c>
       <c r="C569" t="n">
-        <v>1.85714285714286</v>
+        <v>4.47619047619048</v>
       </c>
       <c r="D569" t="n">
-        <v>1.85714285714286</v>
+        <v>0</v>
       </c>
       <c r="E569" t="n">
-        <v>4.33333333333333</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="F569" t="n">
-        <v>0.19047619047619</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="G569" t="n">
-        <v>3.47619047619048</v>
+        <v>2.14285714285714</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>groaning</t>
+          <t>grotesque</t>
         </is>
       </c>
       <c r="C570" t="n">
-        <v>4.47619047619048</v>
+        <v>1.76190476190476</v>
       </c>
       <c r="D570" t="n">
-        <v>0</v>
+        <v>2.76190476190476</v>
       </c>
       <c r="E570" t="n">
-        <v>0.142857142857143</v>
+        <v>2.85714285714286</v>
       </c>
       <c r="F570" t="n">
-        <v>0.0476190476190476</v>
+        <v>3</v>
       </c>
       <c r="G570" t="n">
-        <v>2.14285714285714</v>
+        <v>4.38095238095238</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>grotesque</t>
+          <t>growling</t>
         </is>
       </c>
       <c r="C571" t="n">
-        <v>1.76190476190476</v>
+        <v>4.61904761904762</v>
       </c>
       <c r="D571" t="n">
-        <v>2.76190476190476</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="E571" t="n">
-        <v>2.85714285714286</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="F571" t="n">
-        <v>3</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="G571" t="n">
-        <v>4.38095238095238</v>
+        <v>3.04761904761905</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>growling</t>
+          <t>grubby</t>
         </is>
       </c>
       <c r="C572" t="n">
-        <v>4.61904761904762</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="D572" t="n">
-        <v>0.09523809523809521</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="E572" t="n">
-        <v>0.19047619047619</v>
+        <v>2.33333333333333</v>
       </c>
       <c r="F572" t="n">
-        <v>0.19047619047619</v>
+        <v>2.14285714285714</v>
       </c>
       <c r="G572" t="n">
-        <v>3.04761904761905</v>
+        <v>4.66666666666667</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>grubby</t>
+          <t>gurgling</t>
         </is>
       </c>
       <c r="C573" t="n">
-        <v>0.142857142857143</v>
+        <v>4.38095238095238</v>
       </c>
       <c r="D573" t="n">
-        <v>0.19047619047619</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="E573" t="n">
-        <v>2.33333333333333</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="F573" t="n">
-        <v>2.14285714285714</v>
+        <v>0.5238095238095239</v>
       </c>
       <c r="G573" t="n">
-        <v>4.66666666666667</v>
+        <v>3.23809523809524</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>gurgling</t>
+          <t>hairy</t>
         </is>
       </c>
       <c r="C574" t="n">
-        <v>4.38095238095238</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="D574" t="n">
-        <v>0.476190476190476</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="E574" t="n">
-        <v>0.714285714285714</v>
+        <v>4.42857142857143</v>
       </c>
       <c r="F574" t="n">
-        <v>0.5238095238095239</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="G574" t="n">
-        <v>3.23809523809524</v>
+        <v>4.47619047619048</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>hairy</t>
+          <t>handsome</t>
         </is>
       </c>
       <c r="C575" t="n">
-        <v>0.19047619047619</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="D575" t="n">
-        <v>0.19047619047619</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E575" t="n">
-        <v>4.42857142857143</v>
+        <v>1.42857142857143</v>
       </c>
       <c r="F575" t="n">
-        <v>0.19047619047619</v>
+        <v>1.38095238095238</v>
       </c>
       <c r="G575" t="n">
-        <v>4.47619047619048</v>
+        <v>4.95238095238095</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>handsome</t>
+          <t>happy</t>
         </is>
       </c>
       <c r="C576" t="n">
-        <v>0.904761904761905</v>
+        <v>3.61904761904762</v>
       </c>
       <c r="D576" t="n">
-        <v>0.333333333333333</v>
+        <v>1.14285714285714</v>
       </c>
       <c r="E576" t="n">
-        <v>1.42857142857143</v>
+        <v>1.23809523809524</v>
       </c>
       <c r="F576" t="n">
-        <v>1.38095238095238</v>
+        <v>1.28571428571429</v>
       </c>
       <c r="G576" t="n">
-        <v>4.95238095238095</v>
+        <v>4.33333333333333</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="C577" t="n">
-        <v>3.61904761904762</v>
+        <v>1.28571428571429</v>
       </c>
       <c r="D577" t="n">
-        <v>1.14285714285714</v>
+        <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>1.23809523809524</v>
+        <v>4.71428571428571</v>
       </c>
       <c r="F577" t="n">
-        <v>1.28571428571429</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="G577" t="n">
-        <v>4.33333333333333</v>
+        <v>3.9047619047619</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>harsh</t>
         </is>
       </c>
       <c r="C578" t="n">
-        <v>1.28571428571429</v>
+        <v>3.33333333333333</v>
       </c>
       <c r="D578" t="n">
-        <v>1</v>
+        <v>2.28571428571429</v>
       </c>
       <c r="E578" t="n">
-        <v>4.71428571428571</v>
+        <v>2.52380952380952</v>
       </c>
       <c r="F578" t="n">
-        <v>0.09523809523809521</v>
+        <v>1.80952380952381</v>
       </c>
       <c r="G578" t="n">
-        <v>3.9047619047619</v>
+        <v>3.19047619047619</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>harsh</t>
+          <t>hazy</t>
         </is>
       </c>
       <c r="C579" t="n">
-        <v>3.33333333333333</v>
+        <v>0.952380952380952</v>
       </c>
       <c r="D579" t="n">
-        <v>2.28571428571429</v>
+        <v>0</v>
       </c>
       <c r="E579" t="n">
-        <v>2.52380952380952</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="F579" t="n">
-        <v>1.80952380952381</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="G579" t="n">
-        <v>3.19047619047619</v>
+        <v>4.38095238095238</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>hazy</t>
+          <t>heavy</t>
         </is>
       </c>
       <c r="C580" t="n">
-        <v>0.952380952380952</v>
+        <v>1.71428571428571</v>
       </c>
       <c r="D580" t="n">
-        <v>0</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E580" t="n">
-        <v>0.142857142857143</v>
+        <v>3.9047619047619</v>
       </c>
       <c r="F580" t="n">
-        <v>0.476190476190476</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="G580" t="n">
-        <v>4.38095238095238</v>
+        <v>3.52380952380952</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>heavy</t>
+          <t>herby</t>
         </is>
       </c>
       <c r="C581" t="n">
-        <v>1.71428571428571</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="D581" t="n">
-        <v>0.571428571428571</v>
+        <v>4.80952380952381</v>
       </c>
       <c r="E581" t="n">
-        <v>3.9047619047619</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="F581" t="n">
-        <v>0.238095238095238</v>
+        <v>4.14285714285714</v>
       </c>
       <c r="G581" t="n">
-        <v>3.52380952380952</v>
+        <v>2.80952380952381</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>herby</t>
+          <t>high</t>
         </is>
       </c>
       <c r="C582" t="n">
-        <v>0.0476190476190476</v>
+        <v>2.47619047619048</v>
       </c>
       <c r="D582" t="n">
-        <v>4.80952380952381</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="E582" t="n">
-        <v>0.761904761904762</v>
+        <v>2.28571428571429</v>
       </c>
       <c r="F582" t="n">
-        <v>4.14285714285714</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="G582" t="n">
-        <v>2.80952380952381</v>
+        <v>4.38095238095238</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>hissing</t>
         </is>
       </c>
       <c r="C583" t="n">
-        <v>2.47619047619048</v>
+        <v>4.52380952380952</v>
       </c>
       <c r="D583" t="n">
-        <v>0.285714285714286</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="E583" t="n">
-        <v>2.28571428571429</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F583" t="n">
-        <v>0.285714285714286</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="G583" t="n">
-        <v>4.38095238095238</v>
+        <v>2.0952380952381</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>hissing</t>
+          <t>hoarse</t>
         </is>
       </c>
       <c r="C584" t="n">
-        <v>4.52380952380952</v>
+        <v>3.9</v>
       </c>
       <c r="D584" t="n">
-        <v>0.0476190476190476</v>
+        <v>0.35</v>
       </c>
       <c r="E584" t="n">
-        <v>0.333333333333333</v>
+        <v>1.45</v>
       </c>
       <c r="F584" t="n">
-        <v>0.0476190476190476</v>
+        <v>0.15</v>
       </c>
       <c r="G584" t="n">
-        <v>2.0952380952381</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>hoarse</t>
+          <t>hollow</t>
         </is>
       </c>
       <c r="C585" t="n">
-        <v>3.9</v>
+        <v>3.85714285714286</v>
       </c>
       <c r="D585" t="n">
-        <v>0.35</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E585" t="n">
-        <v>1.45</v>
+        <v>4.14285714285714</v>
       </c>
       <c r="F585" t="n">
-        <v>0.15</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="G585" t="n">
-        <v>1.55</v>
+        <v>4.38095238095238</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>hollow</t>
+          <t>honeyed</t>
         </is>
       </c>
       <c r="C586" t="n">
-        <v>3.85714285714286</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="D586" t="n">
-        <v>0.571428571428571</v>
+        <v>4.09523809523809</v>
       </c>
       <c r="E586" t="n">
-        <v>4.14285714285714</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="F586" t="n">
-        <v>0.09523809523809521</v>
+        <v>3.57142857142857</v>
       </c>
       <c r="G586" t="n">
-        <v>4.38095238095238</v>
+        <v>3.04761904761905</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>honeyed</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="C587" t="n">
-        <v>0.333333333333333</v>
+        <v>1.04761904761905</v>
       </c>
       <c r="D587" t="n">
-        <v>4.09523809523809</v>
+        <v>4.42857142857143</v>
       </c>
       <c r="E587" t="n">
-        <v>1.33333333333333</v>
+        <v>4.85714285714286</v>
       </c>
       <c r="F587" t="n">
-        <v>3.57142857142857</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="G587" t="n">
-        <v>3.04761904761905</v>
+        <v>3.33333333333333</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>howling</t>
         </is>
       </c>
       <c r="C588" t="n">
-        <v>1.04761904761905</v>
+        <v>4.95238095238095</v>
       </c>
       <c r="D588" t="n">
-        <v>4.42857142857143</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="E588" t="n">
-        <v>4.85714285714286</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="F588" t="n">
-        <v>1.66666666666667</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="G588" t="n">
-        <v>3.33333333333333</v>
+        <v>2.80952380952381</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>howling</t>
+          <t>huge</t>
         </is>
       </c>
       <c r="C589" t="n">
-        <v>4.95238095238095</v>
+        <v>1.42857142857143</v>
       </c>
       <c r="D589" t="n">
-        <v>0.142857142857143</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="E589" t="n">
-        <v>0.142857142857143</v>
+        <v>3.71428571428571</v>
       </c>
       <c r="F589" t="n">
-        <v>0.142857142857143</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="G589" t="n">
-        <v>2.80952380952381</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>huge</t>
+          <t>humid</t>
         </is>
       </c>
       <c r="C590" t="n">
+        <v>0.238095238095238</v>
+      </c>
+      <c r="D590" t="n">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="E590" t="n">
+        <v>3.28571428571429</v>
+      </c>
+      <c r="F590" t="n">
         <v>1.42857142857143</v>
       </c>
-      <c r="D590" t="n">
-        <v>0.380952380952381</v>
-      </c>
-      <c r="E590" t="n">
-        <v>3.71428571428571</v>
-      </c>
-      <c r="F590" t="n">
-        <v>0.333333333333333</v>
-      </c>
       <c r="G590" t="n">
-        <v>4.95</v>
+        <v>1.76190476190476</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>humid</t>
+          <t>hushed</t>
         </is>
       </c>
       <c r="C591" t="n">
-        <v>0.238095238095238</v>
+        <v>4.38095238095238</v>
       </c>
       <c r="D591" t="n">
-        <v>0.476190476190476</v>
+        <v>0</v>
       </c>
       <c r="E591" t="n">
-        <v>3.28571428571429</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="F591" t="n">
-        <v>1.42857142857143</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="G591" t="n">
-        <v>1.76190476190476</v>
+        <v>1.80952380952381</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>hushed</t>
+          <t>husky</t>
         </is>
       </c>
       <c r="C592" t="n">
-        <v>4.38095238095238</v>
+        <v>4.61904761904762</v>
       </c>
       <c r="D592" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E592" t="n">
-        <v>0.142857142857143</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="F592" t="n">
-        <v>0.0476190476190476</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="G592" t="n">
-        <v>1.80952380952381</v>
+        <v>1.28571428571429</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>husky</t>
+          <t>icy</t>
         </is>
       </c>
       <c r="C593" t="n">
-        <v>4.61904761904762</v>
+        <v>1.23809523809524</v>
       </c>
       <c r="D593" t="n">
-        <v>0.333333333333333</v>
+        <v>1.9047619047619</v>
       </c>
       <c r="E593" t="n">
-        <v>0.571428571428571</v>
+        <v>4.42857142857143</v>
       </c>
       <c r="F593" t="n">
-        <v>0.714285714285714</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="G593" t="n">
-        <v>1.28571428571429</v>
+        <v>4.52380952380952</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>icy</t>
+          <t>immense</t>
         </is>
       </c>
       <c r="C594" t="n">
-        <v>1.23809523809524</v>
+        <v>2.33333333333333</v>
       </c>
       <c r="D594" t="n">
-        <v>1.9047619047619</v>
+        <v>1.61904761904762</v>
       </c>
       <c r="E594" t="n">
-        <v>4.42857142857143</v>
+        <v>2.0952380952381</v>
       </c>
       <c r="F594" t="n">
-        <v>0.619047619047619</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="G594" t="n">
-        <v>4.52380952380952</v>
+        <v>4</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>immense</t>
+          <t>insipid</t>
         </is>
       </c>
       <c r="C595" t="n">
-        <v>2.33333333333333</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="D595" t="n">
-        <v>1.61904761904762</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E595" t="n">
-        <v>2.0952380952381</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="F595" t="n">
-        <v>1.66666666666667</v>
+        <v>1.42857142857143</v>
       </c>
       <c r="G595" t="n">
-        <v>4</v>
+        <v>1.71428571428571</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>insipid</t>
+          <t>itchy</t>
         </is>
       </c>
       <c r="C596" t="n">
+        <v>1.28571428571429</v>
+      </c>
+      <c r="D596" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E596" t="n">
+        <v>4.80952380952381</v>
+      </c>
+      <c r="F596" t="n">
         <v>0.285714285714286</v>
       </c>
-      <c r="D596" t="n">
-        <v>0.857142857142857</v>
-      </c>
-      <c r="E596" t="n">
-        <v>0.428571428571429</v>
-      </c>
-      <c r="F596" t="n">
-        <v>1.42857142857143</v>
-      </c>
       <c r="G596" t="n">
-        <v>1.71428571428571</v>
+        <v>3.14285714285714</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>itchy</t>
+          <t>jagged</t>
         </is>
       </c>
       <c r="C597" t="n">
-        <v>1.28571428571429</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="D597" t="n">
-        <v>0.333333333333333</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="E597" t="n">
-        <v>4.80952380952381</v>
+        <v>4.76190476190476</v>
       </c>
       <c r="F597" t="n">
-        <v>0.285714285714286</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="G597" t="n">
-        <v>3.14285714285714</v>
+        <v>4.71428571428571</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>jagged</t>
+          <t>jammy</t>
         </is>
       </c>
       <c r="C598" t="n">
-        <v>0.619047619047619</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="D598" t="n">
-        <v>0.476190476190476</v>
+        <v>4.71428571428571</v>
       </c>
       <c r="E598" t="n">
-        <v>4.76190476190476</v>
+        <v>1.52380952380952</v>
       </c>
       <c r="F598" t="n">
-        <v>0.238095238095238</v>
+        <v>2.47619047619048</v>
       </c>
       <c r="G598" t="n">
-        <v>4.71428571428571</v>
+        <v>3.33333333333333</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>jammy</t>
+          <t>jingling</t>
         </is>
       </c>
       <c r="C599" t="n">
-        <v>0.238095238095238</v>
+        <v>4.95</v>
       </c>
       <c r="D599" t="n">
-        <v>4.71428571428571</v>
+        <v>0.15</v>
       </c>
       <c r="E599" t="n">
-        <v>1.52380952380952</v>
+        <v>1.1</v>
       </c>
       <c r="F599" t="n">
-        <v>2.47619047619048</v>
+        <v>0.15</v>
       </c>
       <c r="G599" t="n">
-        <v>3.33333333333333</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>jingling</t>
+          <t>juicy</t>
         </is>
       </c>
       <c r="C600" t="n">
-        <v>4.95</v>
+        <v>1.42857142857143</v>
       </c>
       <c r="D600" t="n">
-        <v>0.15</v>
+        <v>4.85714285714286</v>
       </c>
       <c r="E600" t="n">
-        <v>1.1</v>
+        <v>2.19047619047619</v>
       </c>
       <c r="F600" t="n">
-        <v>0.15</v>
+        <v>2.80952380952381</v>
       </c>
       <c r="G600" t="n">
-        <v>2.95</v>
+        <v>3.61904761904762</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>juicy</t>
+          <t>khaki</t>
         </is>
       </c>
       <c r="C601" t="n">
-        <v>1.42857142857143</v>
+        <v>0.3</v>
       </c>
       <c r="D601" t="n">
-        <v>4.85714285714286</v>
+        <v>0.1</v>
       </c>
       <c r="E601" t="n">
-        <v>2.19047619047619</v>
+        <v>0.55</v>
       </c>
       <c r="F601" t="n">
-        <v>2.80952380952381</v>
+        <v>0.25</v>
       </c>
       <c r="G601" t="n">
-        <v>3.61904761904762</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>khaki</t>
+          <t>large</t>
         </is>
       </c>
       <c r="C602" t="n">
-        <v>0.3</v>
+        <v>1.47619047619048</v>
       </c>
       <c r="D602" t="n">
-        <v>0.1</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E602" t="n">
-        <v>0.55</v>
+        <v>4.19047619047619</v>
       </c>
       <c r="F602" t="n">
-        <v>0.25</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="G602" t="n">
-        <v>4.95</v>
+        <v>4.85714285714286</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>laughing</t>
         </is>
       </c>
       <c r="C603" t="n">
-        <v>1.47619047619048</v>
+        <v>4.71428571428571</v>
       </c>
       <c r="D603" t="n">
-        <v>0.571428571428571</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="E603" t="n">
-        <v>4.19047619047619</v>
+        <v>0.55</v>
       </c>
       <c r="F603" t="n">
-        <v>0.380952380952381</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="G603" t="n">
-        <v>4.85714285714286</v>
+        <v>4.33333333333333</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>laughing</t>
+          <t>leathery</t>
         </is>
       </c>
       <c r="C604" t="n">
-        <v>4.71428571428571</v>
+        <v>0.5238095238095239</v>
       </c>
       <c r="D604" t="n">
-        <v>0.0476190476190476</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="E604" t="n">
-        <v>0.55</v>
+        <v>4.57142857142857</v>
       </c>
       <c r="F604" t="n">
-        <v>0.0476190476190476</v>
+        <v>2.85714285714286</v>
       </c>
       <c r="G604" t="n">
-        <v>4.33333333333333</v>
+        <v>4.14285714285714</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>leathery</t>
+          <t>lemony</t>
         </is>
       </c>
       <c r="C605" t="n">
-        <v>0.5238095238095239</v>
+        <v>0</v>
       </c>
       <c r="D605" t="n">
-        <v>0.380952380952381</v>
+        <v>4.95238095238095</v>
       </c>
       <c r="E605" t="n">
-        <v>4.57142857142857</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="F605" t="n">
-        <v>2.85714285714286</v>
+        <v>3.71428571428571</v>
       </c>
       <c r="G605" t="n">
-        <v>4.14285714285714</v>
+        <v>2.9047619047619</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>lemony</t>
+          <t>light</t>
         </is>
       </c>
       <c r="C606" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D606" t="n">
-        <v>4.95238095238095</v>
+        <v>1.57142857142857</v>
       </c>
       <c r="E606" t="n">
-        <v>0.714285714285714</v>
+        <v>2.38095238095238</v>
       </c>
       <c r="F606" t="n">
-        <v>3.71428571428571</v>
+        <v>1</v>
       </c>
       <c r="G606" t="n">
-        <v>2.9047619047619</v>
+        <v>4.14285714285714</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>light</t>
+          <t>lilting</t>
         </is>
       </c>
       <c r="C607" t="n">
-        <v>1</v>
+        <v>2.27272727272727</v>
       </c>
       <c r="D607" t="n">
-        <v>1.57142857142857</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="E607" t="n">
-        <v>2.38095238095238</v>
+        <v>1.41666666666667</v>
       </c>
       <c r="F607" t="n">
-        <v>1</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="G607" t="n">
-        <v>4.14285714285714</v>
+        <v>2.54545454545455</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>lilting</t>
+          <t>lithe</t>
         </is>
       </c>
       <c r="C608" t="n">
-        <v>2.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="D608" t="n">
-        <v>0.363636363636364</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="E608" t="n">
-        <v>1.41666666666667</v>
+        <v>3</v>
       </c>
       <c r="F608" t="n">
-        <v>0.545454545454545</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="G608" t="n">
-        <v>2.54545454545455</v>
+        <v>4.16666666666667</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>lithe</t>
+          <t>little</t>
         </is>
       </c>
       <c r="C609" t="n">
+        <v>0.380952380952381</v>
+      </c>
+      <c r="D609" t="n">
+        <v>0.09523809523809521</v>
+      </c>
+      <c r="E609" t="n">
+        <v>3.23809523809524</v>
+      </c>
+      <c r="F609" t="n">
         <v>0</v>
       </c>
-      <c r="D609" t="n">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="E609" t="n">
-        <v>3</v>
-      </c>
-      <c r="F609" t="n">
-        <v>0.166666666666667</v>
-      </c>
       <c r="G609" t="n">
-        <v>4.16666666666667</v>
+        <v>4.66666666666667</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>little</t>
+          <t>long</t>
         </is>
       </c>
       <c r="C610" t="n">
-        <v>0.380952380952381</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="D610" t="n">
-        <v>0.09523809523809521</v>
+        <v>0</v>
       </c>
       <c r="E610" t="n">
-        <v>3.23809523809524</v>
+        <v>3.9047619047619</v>
       </c>
       <c r="F610" t="n">
         <v>0</v>
       </c>
       <c r="G610" t="n">
-        <v>4.66666666666667</v>
+        <v>4.76190476190476</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>loose</t>
         </is>
       </c>
       <c r="C611" t="n">
-        <v>0.714285714285714</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="D611" t="n">
-        <v>0</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="E611" t="n">
-        <v>3.9047619047619</v>
+        <v>3.80952380952381</v>
       </c>
       <c r="F611" t="n">
-        <v>0</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="G611" t="n">
-        <v>4.76190476190476</v>
+        <v>4.14285714285714</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>loose</t>
+          <t>loud</t>
         </is>
       </c>
       <c r="C612" t="n">
-        <v>0.380952380952381</v>
+        <v>4.95238095238095</v>
       </c>
       <c r="D612" t="n">
-        <v>0.0476190476190476</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="E612" t="n">
-        <v>3.80952380952381</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="F612" t="n">
-        <v>0.142857142857143</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="G612" t="n">
-        <v>4.14285714285714</v>
+        <v>1.57142857142857</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>loud</t>
+          <t>low</t>
         </is>
       </c>
       <c r="C613" t="n">
-        <v>4.95238095238095</v>
+        <v>1.9047619047619</v>
       </c>
       <c r="D613" t="n">
-        <v>0.238095238095238</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="E613" t="n">
-        <v>0.238095238095238</v>
+        <v>2.52380952380952</v>
       </c>
       <c r="F613" t="n">
-        <v>0.09523809523809521</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="G613" t="n">
-        <v>1.57142857142857</v>
+        <v>4.28571428571429</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>lukewarm</t>
         </is>
       </c>
       <c r="C614" t="n">
-        <v>1.9047619047619</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="D614" t="n">
-        <v>0.142857142857143</v>
+        <v>2.57142857142857</v>
       </c>
       <c r="E614" t="n">
-        <v>2.52380952380952</v>
+        <v>4.71428571428571</v>
       </c>
       <c r="F614" t="n">
-        <v>0.142857142857143</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="G614" t="n">
-        <v>4.28571428571429</v>
+        <v>0.714285714285714</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>lukewarm</t>
+          <t>lumpy</t>
         </is>
       </c>
       <c r="C615" t="n">
-        <v>0.238095238095238</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="D615" t="n">
-        <v>2.57142857142857</v>
+        <v>2.52380952380952</v>
       </c>
       <c r="E615" t="n">
-        <v>4.71428571428571</v>
+        <v>4.47619047619048</v>
       </c>
       <c r="F615" t="n">
-        <v>0.714285714285714</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="G615" t="n">
-        <v>0.714285714285714</v>
+        <v>4.42857142857143</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>lumpy</t>
+          <t>lush</t>
         </is>
       </c>
       <c r="C616" t="n">
-        <v>0.714285714285714</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="D616" t="n">
-        <v>2.52380952380952</v>
+        <v>2.95238095238095</v>
       </c>
       <c r="E616" t="n">
-        <v>4.47619047619048</v>
+        <v>3</v>
       </c>
       <c r="F616" t="n">
-        <v>0.285714285714286</v>
+        <v>3</v>
       </c>
       <c r="G616" t="n">
-        <v>4.42857142857143</v>
+        <v>4.04761904761905</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>lush</t>
+          <t>malty</t>
         </is>
       </c>
       <c r="C617" t="n">
-        <v>0.857142857142857</v>
+        <v>0</v>
       </c>
       <c r="D617" t="n">
-        <v>2.95238095238095</v>
+        <v>3.84210526315789</v>
       </c>
       <c r="E617" t="n">
-        <v>3</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="F617" t="n">
-        <v>3</v>
+        <v>2.73684210526316</v>
       </c>
       <c r="G617" t="n">
-        <v>4.04761904761905</v>
+        <v>1.84210526315789</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>malty</t>
+          <t>meaty</t>
         </is>
       </c>
       <c r="C618" t="n">
-        <v>0</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="D618" t="n">
-        <v>3.84210526315789</v>
+        <v>4.80952380952381</v>
       </c>
       <c r="E618" t="n">
-        <v>0.789473684210526</v>
+        <v>1.61904761904762</v>
       </c>
       <c r="F618" t="n">
-        <v>2.73684210526316</v>
+        <v>3.28571428571429</v>
       </c>
       <c r="G618" t="n">
-        <v>1.84210526315789</v>
+        <v>3.76190476190476</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>meaty</t>
+          <t>medicinal</t>
         </is>
       </c>
       <c r="C619" t="n">
-        <v>0.09523809523809521</v>
+        <v>0.6</v>
       </c>
       <c r="D619" t="n">
-        <v>4.80952380952381</v>
+        <v>2.45</v>
       </c>
       <c r="E619" t="n">
-        <v>1.61904761904762</v>
+        <v>0.75</v>
       </c>
       <c r="F619" t="n">
-        <v>3.28571428571429</v>
+        <v>2.35</v>
       </c>
       <c r="G619" t="n">
-        <v>3.76190476190476</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>medicinal</t>
+          <t>mellow</t>
         </is>
       </c>
       <c r="C620" t="n">
-        <v>0.6</v>
+        <v>2.71428571428571</v>
       </c>
       <c r="D620" t="n">
-        <v>2.45</v>
+        <v>1.04761904761905</v>
       </c>
       <c r="E620" t="n">
-        <v>0.75</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="F620" t="n">
-        <v>2.35</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="G620" t="n">
-        <v>3.2</v>
+        <v>3.14285714285714</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>mellow</t>
+          <t>melodious</t>
         </is>
       </c>
       <c r="C621" t="n">
-        <v>2.71428571428571</v>
+        <v>4.84210526315789</v>
       </c>
       <c r="D621" t="n">
-        <v>1.04761904761905</v>
+        <v>0.368421052631579</v>
       </c>
       <c r="E621" t="n">
-        <v>0.428571428571429</v>
+        <v>0.526315789473684</v>
       </c>
       <c r="F621" t="n">
-        <v>0.80952380952381</v>
+        <v>0.368421052631579</v>
       </c>
       <c r="G621" t="n">
-        <v>3.14285714285714</v>
+        <v>0.842105263157895</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>melodious</t>
+          <t>melted</t>
         </is>
       </c>
       <c r="C622" t="n">
-        <v>4.84210526315789</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="D622" t="n">
-        <v>0.368421052631579</v>
+        <v>2.71428571428571</v>
       </c>
       <c r="E622" t="n">
-        <v>0.526315789473684</v>
+        <v>3.85714285714286</v>
       </c>
       <c r="F622" t="n">
-        <v>0.368421052631579</v>
+        <v>1.57142857142857</v>
       </c>
       <c r="G622" t="n">
-        <v>0.842105263157895</v>
+        <v>4.85714285714286</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>melted</t>
+          <t>meowing</t>
         </is>
       </c>
       <c r="C623" t="n">
-        <v>0.857142857142857</v>
+        <v>4.95238095238095</v>
       </c>
       <c r="D623" t="n">
-        <v>2.71428571428571</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="E623" t="n">
-        <v>3.85714285714286</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="F623" t="n">
-        <v>1.57142857142857</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="G623" t="n">
-        <v>4.85714285714286</v>
+        <v>2.57142857142857</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>meowing</t>
+          <t>metal</t>
         </is>
       </c>
       <c r="C624" t="n">
-        <v>4.95238095238095</v>
+        <v>2.66666666666667</v>
       </c>
       <c r="D624" t="n">
-        <v>0.09523809523809521</v>
+        <v>1.28571428571429</v>
       </c>
       <c r="E624" t="n">
-        <v>0.19047619047619</v>
+        <v>4.23809523809524</v>
       </c>
       <c r="F624" t="n">
-        <v>0.380952380952381</v>
+        <v>1.23809523809524</v>
       </c>
       <c r="G624" t="n">
-        <v>2.57142857142857</v>
+        <v>4.52380952380952</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>metal</t>
+          <t>mild</t>
         </is>
       </c>
       <c r="C625" t="n">
-        <v>2.66666666666667</v>
+        <v>1.76190476190476</v>
       </c>
       <c r="D625" t="n">
-        <v>1.28571428571429</v>
+        <v>3.61904761904762</v>
       </c>
       <c r="E625" t="n">
-        <v>4.23809523809524</v>
+        <v>1.38095238095238</v>
       </c>
       <c r="F625" t="n">
-        <v>1.23809523809524</v>
+        <v>2.61904761904762</v>
       </c>
       <c r="G625" t="n">
-        <v>4.52380952380952</v>
+        <v>2.19047619047619</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>mild</t>
+          <t>miniature</t>
         </is>
       </c>
       <c r="C626" t="n">
-        <v>1.76190476190476</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="D626" t="n">
-        <v>3.61904761904762</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="E626" t="n">
-        <v>1.38095238095238</v>
+        <v>3.33333333333333</v>
       </c>
       <c r="F626" t="n">
-        <v>2.61904761904762</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="G626" t="n">
-        <v>2.19047619047619</v>
+        <v>4.57142857142857</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>miniature</t>
+          <t>minty</t>
         </is>
       </c>
       <c r="C627" t="n">
-        <v>0.428571428571429</v>
+        <v>0</v>
       </c>
       <c r="D627" t="n">
+        <v>4.95238095238095</v>
+      </c>
+      <c r="E627" t="n">
         <v>0.142857142857143</v>
       </c>
-      <c r="E627" t="n">
-        <v>3.33333333333333</v>
-      </c>
       <c r="F627" t="n">
-        <v>0.19047619047619</v>
+        <v>3.95238095238095</v>
       </c>
       <c r="G627" t="n">
-        <v>4.57142857142857</v>
+        <v>1.71428571428571</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>minty</t>
+          <t>misty</t>
         </is>
       </c>
       <c r="C628" t="n">
-        <v>0</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="D628" t="n">
-        <v>4.95238095238095</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="E628" t="n">
-        <v>0.142857142857143</v>
+        <v>1.0952380952381</v>
       </c>
       <c r="F628" t="n">
-        <v>3.95238095238095</v>
+        <v>0.952380952380952</v>
       </c>
       <c r="G628" t="n">
-        <v>1.71428571428571</v>
+        <v>4.71428571428571</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>misty</t>
+          <t>moaning</t>
         </is>
       </c>
       <c r="C629" t="n">
-        <v>0.571428571428571</v>
+        <v>4.95238095238095</v>
       </c>
       <c r="D629" t="n">
-        <v>0.476190476190476</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="E629" t="n">
-        <v>1.0952380952381</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="F629" t="n">
-        <v>0.952380952380952</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="G629" t="n">
-        <v>4.71428571428571</v>
+        <v>3</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>moaning</t>
+          <t>moist</t>
         </is>
       </c>
       <c r="C630" t="n">
-        <v>4.95238095238095</v>
+        <v>1.42857142857143</v>
       </c>
       <c r="D630" t="n">
-        <v>0.142857142857143</v>
+        <v>2.85714285714286</v>
       </c>
       <c r="E630" t="n">
-        <v>0.19047619047619</v>
+        <v>4.38095238095238</v>
       </c>
       <c r="F630" t="n">
-        <v>0.142857142857143</v>
+        <v>1.71428571428571</v>
       </c>
       <c r="G630" t="n">
-        <v>3</v>
+        <v>3.66666666666667</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>moist</t>
+          <t>motionless</t>
         </is>
       </c>
       <c r="C631" t="n">
-        <v>1.42857142857143</v>
+        <v>1.71428571428571</v>
       </c>
       <c r="D631" t="n">
-        <v>2.85714285714286</v>
+        <v>0</v>
       </c>
       <c r="E631" t="n">
-        <v>4.38095238095238</v>
+        <v>2.52380952380952</v>
       </c>
       <c r="F631" t="n">
-        <v>1.71428571428571</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="G631" t="n">
-        <v>3.66666666666667</v>
+        <v>4.57142857142857</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>motionless</t>
+          <t>mottled</t>
         </is>
       </c>
       <c r="C632" t="n">
-        <v>1.71428571428571</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="D632" t="n">
-        <v>0</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="E632" t="n">
-        <v>2.52380952380952</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="F632" t="n">
-        <v>0.0476190476190476</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="G632" t="n">
-        <v>4.57142857142857</v>
+        <v>4.36363636363636</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>mottled</t>
+          <t>mouldy</t>
         </is>
       </c>
       <c r="C633" t="n">
-        <v>0.636363636363636</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="D633" t="n">
-        <v>0.636363636363636</v>
+        <v>3</v>
       </c>
       <c r="E633" t="n">
-        <v>1.33333333333333</v>
+        <v>1.80952380952381</v>
       </c>
       <c r="F633" t="n">
-        <v>0.727272727272727</v>
+        <v>3.47619047619048</v>
       </c>
       <c r="G633" t="n">
-        <v>4.36363636363636</v>
+        <v>4.38095238095238</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>mouldy</t>
+          <t>muddy</t>
         </is>
       </c>
       <c r="C634" t="n">
-        <v>0.0476190476190476</v>
+        <v>1.38095238095238</v>
       </c>
       <c r="D634" t="n">
-        <v>3</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E634" t="n">
-        <v>1.80952380952381</v>
+        <v>3.52380952380952</v>
       </c>
       <c r="F634" t="n">
-        <v>3.47619047619048</v>
+        <v>2.23809523809524</v>
       </c>
       <c r="G634" t="n">
-        <v>4.38095238095238</v>
+        <v>4.52380952380952</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>muddy</t>
+          <t>muffled</t>
         </is>
       </c>
       <c r="C635" t="n">
+        <v>4.47619047619048</v>
+      </c>
+      <c r="D635" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E635" t="n">
+        <v>0.428571428571429</v>
+      </c>
+      <c r="F635" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G635" t="n">
         <v>1.38095238095238</v>
-      </c>
-      <c r="D635" t="n">
-        <v>0.761904761904762</v>
-      </c>
-      <c r="E635" t="n">
-        <v>3.52380952380952</v>
-      </c>
-      <c r="F635" t="n">
-        <v>2.23809523809524</v>
-      </c>
-      <c r="G635" t="n">
-        <v>4.52380952380952</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>muffled</t>
+          <t>muggy</t>
         </is>
       </c>
       <c r="C636" t="n">
-        <v>4.47619047619048</v>
+        <v>0.764705882352941</v>
       </c>
       <c r="D636" t="n">
-        <v>0.333333333333333</v>
+        <v>0.647058823529412</v>
       </c>
       <c r="E636" t="n">
-        <v>0.428571428571429</v>
+        <v>1.35294117647059</v>
       </c>
       <c r="F636" t="n">
-        <v>0.333333333333333</v>
+        <v>1.58823529411765</v>
       </c>
       <c r="G636" t="n">
-        <v>1.38095238095238</v>
+        <v>3.17647058823529</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>muggy</t>
+          <t>mumbling</t>
         </is>
       </c>
       <c r="C637" t="n">
-        <v>0.764705882352941</v>
+        <v>4.90476190476191</v>
       </c>
       <c r="D637" t="n">
-        <v>0.647058823529412</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="E637" t="n">
-        <v>1.35294117647059</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="F637" t="n">
-        <v>1.58823529411765</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="G637" t="n">
-        <v>3.17647058823529</v>
+        <v>1.9047619047619</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>mumbling</t>
+          <t>murky</t>
         </is>
       </c>
       <c r="C638" t="n">
-        <v>4.90476190476191</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="D638" t="n">
-        <v>0.09523809523809521</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="E638" t="n">
-        <v>0.238095238095238</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="F638" t="n">
-        <v>0.142857142857143</v>
+        <v>1.57142857142857</v>
       </c>
       <c r="G638" t="n">
-        <v>1.9047619047619</v>
+        <v>4.38095238095238</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>murky</t>
+          <t>murmuring</t>
         </is>
       </c>
       <c r="C639" t="n">
-        <v>0.571428571428571</v>
+        <v>4.85714285714286</v>
       </c>
       <c r="D639" t="n">
-        <v>0.428571428571429</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="E639" t="n">
-        <v>0.857142857142857</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="F639" t="n">
-        <v>1.57142857142857</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="G639" t="n">
-        <v>4.38095238095238</v>
+        <v>2.19047619047619</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>murmuring</t>
+          <t>mushroomy</t>
         </is>
       </c>
       <c r="C640" t="n">
-        <v>4.85714285714286</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="D640" t="n">
-        <v>0.09523809523809521</v>
+        <v>4.76190476190476</v>
       </c>
       <c r="E640" t="n">
-        <v>0.238095238095238</v>
+        <v>1.76190476190476</v>
       </c>
       <c r="F640" t="n">
-        <v>0.142857142857143</v>
+        <v>3</v>
       </c>
       <c r="G640" t="n">
-        <v>2.19047619047619</v>
+        <v>3.85714285714286</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>mushroomy</t>
+          <t>mushy</t>
         </is>
       </c>
       <c r="C641" t="n">
-        <v>0.0476190476190476</v>
+        <v>1.9047619047619</v>
       </c>
       <c r="D641" t="n">
-        <v>4.76190476190476</v>
+        <v>3.23809523809524</v>
       </c>
       <c r="E641" t="n">
-        <v>1.76190476190476</v>
+        <v>4.42857142857143</v>
       </c>
       <c r="F641" t="n">
-        <v>3</v>
+        <v>0.5238095238095239</v>
       </c>
       <c r="G641" t="n">
         <v>3.85714285714286</v>
@@ -16467,774 +16467,774 @@
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>mushy</t>
+          <t>musky</t>
         </is>
       </c>
       <c r="C642" t="n">
-        <v>1.9047619047619</v>
+        <v>0.368421052631579</v>
       </c>
       <c r="D642" t="n">
-        <v>3.23809523809524</v>
+        <v>2.05263157894737</v>
       </c>
       <c r="E642" t="n">
-        <v>4.42857142857143</v>
+        <v>0.157894736842105</v>
       </c>
       <c r="F642" t="n">
-        <v>0.5238095238095239</v>
+        <v>4.26315789473684</v>
       </c>
       <c r="G642" t="n">
-        <v>3.85714285714286</v>
+        <v>1.94736842105263</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>musky</t>
+          <t>musty</t>
         </is>
       </c>
       <c r="C643" t="n">
-        <v>0.368421052631579</v>
+        <v>0.473684210526316</v>
       </c>
       <c r="D643" t="n">
-        <v>2.05263157894737</v>
+        <v>1.73684210526316</v>
       </c>
       <c r="E643" t="n">
-        <v>0.157894736842105</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="F643" t="n">
-        <v>4.26315789473684</v>
+        <v>4.31578947368421</v>
       </c>
       <c r="G643" t="n">
-        <v>1.94736842105263</v>
+        <v>3.21052631578947</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>musty</t>
+          <t>mute</t>
         </is>
       </c>
       <c r="C644" t="n">
-        <v>0.473684210526316</v>
+        <v>4.95238095238095</v>
       </c>
       <c r="D644" t="n">
-        <v>1.73684210526316</v>
+        <v>0</v>
       </c>
       <c r="E644" t="n">
-        <v>0.631578947368421</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="F644" t="n">
-        <v>4.31578947368421</v>
+        <v>0</v>
       </c>
       <c r="G644" t="n">
-        <v>3.21052631578947</v>
+        <v>1.52380952380952</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>mute</t>
+          <t>muttering</t>
         </is>
       </c>
       <c r="C645" t="n">
-        <v>4.95238095238095</v>
+        <v>4.80952380952381</v>
       </c>
       <c r="D645" t="n">
-        <v>0</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="E645" t="n">
-        <v>0.09523809523809521</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="F645" t="n">
-        <v>0</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="G645" t="n">
-        <v>1.52380952380952</v>
+        <v>2.61904761904762</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>muttering</t>
+          <t>narrow</t>
         </is>
       </c>
       <c r="C646" t="n">
-        <v>4.80952380952381</v>
+        <v>0.5238095238095239</v>
       </c>
       <c r="D646" t="n">
         <v>0.09523809523809521</v>
       </c>
       <c r="E646" t="n">
-        <v>0.19047619047619</v>
+        <v>3.0952380952381</v>
       </c>
       <c r="F646" t="n">
-        <v>0.142857142857143</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="G646" t="n">
-        <v>2.61904761904762</v>
+        <v>4.85714285714286</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>narrow</t>
+          <t>noisy</t>
         </is>
       </c>
       <c r="C647" t="n">
-        <v>0.5238095238095239</v>
+        <v>4.95238095238095</v>
       </c>
       <c r="D647" t="n">
-        <v>0.09523809523809521</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="E647" t="n">
-        <v>3.0952380952381</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="F647" t="n">
-        <v>0.09523809523809521</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="G647" t="n">
-        <v>4.85714285714286</v>
+        <v>1.66666666666667</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>noisy</t>
+          <t>noxious</t>
         </is>
       </c>
       <c r="C648" t="n">
-        <v>4.95238095238095</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="D648" t="n">
-        <v>0.0476190476190476</v>
+        <v>2.18181818181818</v>
       </c>
       <c r="E648" t="n">
-        <v>0.285714285714286</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="F648" t="n">
-        <v>0.0476190476190476</v>
+        <v>3.1</v>
       </c>
       <c r="G648" t="n">
-        <v>1.66666666666667</v>
+        <v>2.45454545454545</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>noxious</t>
+          <t>nutty</t>
         </is>
       </c>
       <c r="C649" t="n">
-        <v>0.818181818181818</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="D649" t="n">
-        <v>2.18181818181818</v>
+        <v>4.95238095238095</v>
       </c>
       <c r="E649" t="n">
-        <v>0.272727272727273</v>
+        <v>1.47619047619048</v>
       </c>
       <c r="F649" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G649" t="n">
-        <v>2.45454545454545</v>
+        <v>3.57142857142857</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>nutty</t>
+          <t>odorous</t>
         </is>
       </c>
       <c r="C650" t="n">
-        <v>0.333333333333333</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="D650" t="n">
+        <v>1.85714285714286</v>
+      </c>
+      <c r="E650" t="n">
+        <v>0.19047619047619</v>
+      </c>
+      <c r="F650" t="n">
         <v>4.95238095238095</v>
       </c>
-      <c r="E650" t="n">
-        <v>1.47619047619048</v>
-      </c>
-      <c r="F650" t="n">
-        <v>3</v>
-      </c>
       <c r="G650" t="n">
-        <v>3.57142857142857</v>
+        <v>1.14285714285714</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>odorous</t>
+          <t>oily</t>
         </is>
       </c>
       <c r="C651" t="n">
-        <v>0.285714285714286</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="D651" t="n">
-        <v>1.85714285714286</v>
+        <v>3.33333333333333</v>
       </c>
       <c r="E651" t="n">
-        <v>0.19047619047619</v>
+        <v>3.61904761904762</v>
       </c>
       <c r="F651" t="n">
-        <v>4.95238095238095</v>
+        <v>2</v>
       </c>
       <c r="G651" t="n">
-        <v>1.14285714285714</v>
+        <v>3.9047619047619</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>oily</t>
+          <t>oniony</t>
         </is>
       </c>
       <c r="C652" t="n">
-        <v>0.238095238095238</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="D652" t="n">
-        <v>3.33333333333333</v>
+        <v>4.95238095238095</v>
       </c>
       <c r="E652" t="n">
-        <v>3.61904761904762</v>
+        <v>1.23809523809524</v>
       </c>
       <c r="F652" t="n">
-        <v>2</v>
+        <v>4.52380952380952</v>
       </c>
       <c r="G652" t="n">
-        <v>3.9047619047619</v>
+        <v>3.42857142857143</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>oniony</t>
+          <t>open</t>
         </is>
       </c>
       <c r="C653" t="n">
+        <v>1.33333333333333</v>
+      </c>
+      <c r="D653" t="n">
+        <v>0.09523809523809521</v>
+      </c>
+      <c r="E653" t="n">
+        <v>3.42857142857143</v>
+      </c>
+      <c r="F653" t="n">
         <v>0.19047619047619</v>
       </c>
-      <c r="D653" t="n">
-        <v>4.95238095238095</v>
-      </c>
-      <c r="E653" t="n">
-        <v>1.23809523809524</v>
-      </c>
-      <c r="F653" t="n">
-        <v>4.52380952380952</v>
-      </c>
       <c r="G653" t="n">
-        <v>3.42857142857143</v>
+        <v>4.76190476190476</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>open</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="C654" t="n">
-        <v>1.33333333333333</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="D654" t="n">
-        <v>0.09523809523809521</v>
+        <v>2.80952380952381</v>
       </c>
       <c r="E654" t="n">
-        <v>3.42857142857143</v>
+        <v>1.14285714285714</v>
       </c>
       <c r="F654" t="n">
-        <v>0.19047619047619</v>
+        <v>2.33333333333333</v>
       </c>
       <c r="G654" t="n">
-        <v>4.76190476190476</v>
+        <v>4.61904761904762</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>orangey</t>
         </is>
       </c>
       <c r="C655" t="n">
-        <v>0.09523809523809521</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="D655" t="n">
-        <v>2.80952380952381</v>
+        <v>4.33333333333333</v>
       </c>
       <c r="E655" t="n">
-        <v>1.14285714285714</v>
+        <v>1.57142857142857</v>
       </c>
       <c r="F655" t="n">
-        <v>2.33333333333333</v>
+        <v>3.76190476190476</v>
       </c>
       <c r="G655" t="n">
-        <v>4.61904761904762</v>
+        <v>4.23809523809524</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>orangey</t>
+          <t>oval</t>
         </is>
       </c>
       <c r="C656" t="n">
-        <v>0.380952380952381</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="D656" t="n">
-        <v>4.33333333333333</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="E656" t="n">
-        <v>1.57142857142857</v>
+        <v>3.95238095238095</v>
       </c>
       <c r="F656" t="n">
-        <v>3.76190476190476</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="G656" t="n">
-        <v>4.23809523809524</v>
+        <v>4.61904761904762</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>oval</t>
+          <t>painful</t>
         </is>
       </c>
       <c r="C657" t="n">
-        <v>0.0476190476190476</v>
+        <v>3.33333333333333</v>
       </c>
       <c r="D657" t="n">
-        <v>0.285714285714286</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E657" t="n">
-        <v>3.95238095238095</v>
+        <v>4.61904761904762</v>
       </c>
       <c r="F657" t="n">
-        <v>0.19047619047619</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="G657" t="n">
-        <v>4.61904761904762</v>
+        <v>3.85714285714286</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>painful</t>
+          <t>palatable</t>
         </is>
       </c>
       <c r="C658" t="n">
-        <v>3.33333333333333</v>
+        <v>0.235294117647059</v>
       </c>
       <c r="D658" t="n">
-        <v>0.80952380952381</v>
+        <v>4.82352941176471</v>
       </c>
       <c r="E658" t="n">
-        <v>4.61904761904762</v>
+        <v>0.764705882352941</v>
       </c>
       <c r="F658" t="n">
-        <v>0.761904761904762</v>
+        <v>3.64705882352941</v>
       </c>
       <c r="G658" t="n">
-        <v>3.85714285714286</v>
+        <v>3.47058823529412</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>palatable</t>
+          <t>pale</t>
         </is>
       </c>
       <c r="C659" t="n">
-        <v>0.235294117647059</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="D659" t="n">
-        <v>4.82352941176471</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E659" t="n">
-        <v>0.764705882352941</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="F659" t="n">
-        <v>3.64705882352941</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="G659" t="n">
-        <v>3.47058823529412</v>
+        <v>4.95238095238095</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>pale</t>
+          <t>patterned</t>
         </is>
       </c>
       <c r="C660" t="n">
-        <v>0.238095238095238</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="D660" t="n">
-        <v>0.333333333333333</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="E660" t="n">
-        <v>0.285714285714286</v>
+        <v>1.71428571428571</v>
       </c>
       <c r="F660" t="n">
         <v>0.09523809523809521</v>
       </c>
       <c r="G660" t="n">
-        <v>4.95238095238095</v>
+        <v>4.90476190476191</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>patterned</t>
+          <t>peachy</t>
         </is>
       </c>
       <c r="C661" t="n">
-        <v>0.333333333333333</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="D661" t="n">
-        <v>0.0476190476190476</v>
+        <v>3.61904761904762</v>
       </c>
       <c r="E661" t="n">
-        <v>1.71428571428571</v>
+        <v>2.14285714285714</v>
       </c>
       <c r="F661" t="n">
-        <v>0.09523809523809521</v>
+        <v>3.04761904761905</v>
       </c>
       <c r="G661" t="n">
-        <v>4.90476190476191</v>
+        <v>3.23809523809524</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>peachy</t>
+          <t>peppery</t>
         </is>
       </c>
       <c r="C662" t="n">
-        <v>0.0476190476190476</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="D662" t="n">
-        <v>3.61904761904762</v>
+        <v>4.95238095238095</v>
       </c>
       <c r="E662" t="n">
-        <v>2.14285714285714</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F662" t="n">
-        <v>3.04761904761905</v>
+        <v>3.52380952380952</v>
       </c>
       <c r="G662" t="n">
-        <v>3.23809523809524</v>
+        <v>2.66666666666667</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>peppery</t>
+          <t>perfumed</t>
         </is>
       </c>
       <c r="C663" t="n">
         <v>0.09523809523809521</v>
       </c>
       <c r="D663" t="n">
-        <v>4.95238095238095</v>
+        <v>2.28571428571429</v>
       </c>
       <c r="E663" t="n">
-        <v>0.333333333333333</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="F663" t="n">
-        <v>3.52380952380952</v>
+        <v>4.90476190476191</v>
       </c>
       <c r="G663" t="n">
-        <v>2.66666666666667</v>
+        <v>0.476190476190476</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>perfumed</t>
+          <t>petite</t>
         </is>
       </c>
       <c r="C664" t="n">
-        <v>0.09523809523809521</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="D664" t="n">
-        <v>2.28571428571429</v>
+        <v>0</v>
       </c>
       <c r="E664" t="n">
-        <v>0.19047619047619</v>
+        <v>2.71428571428571</v>
       </c>
       <c r="F664" t="n">
-        <v>4.90476190476191</v>
+        <v>0</v>
       </c>
       <c r="G664" t="n">
-        <v>0.476190476190476</v>
+        <v>4.52380952380952</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>petite</t>
+          <t>pink</t>
         </is>
       </c>
       <c r="C665" t="n">
-        <v>0.285714285714286</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="D665" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E665" t="n">
-        <v>2.71428571428571</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F665" t="n">
-        <v>0</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="G665" t="n">
-        <v>4.52380952380952</v>
+        <v>4.47619047619048</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>plain</t>
         </is>
       </c>
       <c r="C666" t="n">
-        <v>0.142857142857143</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="D666" t="n">
-        <v>0.333333333333333</v>
+        <v>3.23809523809524</v>
       </c>
       <c r="E666" t="n">
-        <v>0.333333333333333</v>
+        <v>1.19047619047619</v>
       </c>
       <c r="F666" t="n">
-        <v>0.19047619047619</v>
+        <v>1.0952380952381</v>
       </c>
       <c r="G666" t="n">
-        <v>4.47619047619048</v>
+        <v>4.28571428571429</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>plain</t>
+          <t>plastic</t>
         </is>
       </c>
       <c r="C667" t="n">
-        <v>0.571428571428571</v>
+        <v>1.47619047619048</v>
       </c>
       <c r="D667" t="n">
-        <v>3.23809523809524</v>
+        <v>0.952380952380952</v>
       </c>
       <c r="E667" t="n">
-        <v>1.19047619047619</v>
+        <v>4.28571428571429</v>
       </c>
       <c r="F667" t="n">
-        <v>1.0952380952381</v>
+        <v>1.61904761904762</v>
       </c>
       <c r="G667" t="n">
-        <v>4.28571428571429</v>
+        <v>4.33333333333333</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>plastic</t>
+          <t>polished</t>
         </is>
       </c>
       <c r="C668" t="n">
-        <v>1.47619047619048</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="D668" t="n">
-        <v>0.952380952380952</v>
+        <v>0</v>
       </c>
       <c r="E668" t="n">
-        <v>4.28571428571429</v>
+        <v>3.47619047619048</v>
       </c>
       <c r="F668" t="n">
-        <v>1.61904761904762</v>
+        <v>1.85714285714286</v>
       </c>
       <c r="G668" t="n">
-        <v>4.33333333333333</v>
+        <v>4.66666666666667</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>polished</t>
+          <t>popping</t>
         </is>
       </c>
       <c r="C669" t="n">
-        <v>0.428571428571429</v>
+        <v>4.19047619047619</v>
       </c>
       <c r="D669" t="n">
-        <v>0</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="E669" t="n">
-        <v>3.47619047619048</v>
+        <v>1.57142857142857</v>
       </c>
       <c r="F669" t="n">
-        <v>1.85714285714286</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="G669" t="n">
-        <v>4.66666666666667</v>
+        <v>3.52380952380952</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>popping</t>
+          <t>portly</t>
         </is>
       </c>
       <c r="C670" t="n">
-        <v>4.19047619047619</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="D670" t="n">
-        <v>0.476190476190476</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E670" t="n">
-        <v>1.57142857142857</v>
+        <v>2.25</v>
       </c>
       <c r="F670" t="n">
-        <v>0.476190476190476</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="G670" t="n">
-        <v>3.52380952380952</v>
+        <v>4</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>portly</t>
+          <t>prickly</t>
         </is>
       </c>
       <c r="C671" t="n">
-        <v>0.333333333333333</v>
+        <v>1.19047619047619</v>
       </c>
       <c r="D671" t="n">
-        <v>0.833333333333333</v>
+        <v>0.952380952380952</v>
       </c>
       <c r="E671" t="n">
-        <v>2.25</v>
+        <v>4.90476190476191</v>
       </c>
       <c r="F671" t="n">
-        <v>0.916666666666667</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="G671" t="n">
-        <v>4</v>
+        <v>4.14285714285714</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>prickly</t>
+          <t>puffy</t>
         </is>
       </c>
       <c r="C672" t="n">
-        <v>1.19047619047619</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="D672" t="n">
-        <v>0.952380952380952</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E672" t="n">
-        <v>4.90476190476191</v>
+        <v>3.57142857142857</v>
       </c>
       <c r="F672" t="n">
-        <v>0.285714285714286</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="G672" t="n">
         <v>4.14285714285714</v>
@@ -17242,24 +17242,24 @@
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>puffy</t>
+          <t>pulsing</t>
         </is>
       </c>
       <c r="C673" t="n">
-        <v>0.80952380952381</v>
+        <v>3.42857142857143</v>
       </c>
       <c r="D673" t="n">
-        <v>0.571428571428571</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="E673" t="n">
-        <v>3.57142857142857</v>
+        <v>4.47619047619048</v>
       </c>
       <c r="F673" t="n">
-        <v>0.428571428571429</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="G673" t="n">
         <v>4.14285714285714</v>
@@ -17267,874 +17267,874 @@
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>pulsing</t>
+          <t>pungent</t>
         </is>
       </c>
       <c r="C674" t="n">
-        <v>3.42857142857143</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="D674" t="n">
-        <v>0.0476190476190476</v>
+        <v>2.21052631578947</v>
       </c>
       <c r="E674" t="n">
-        <v>4.47619047619048</v>
+        <v>0.315789473684211</v>
       </c>
       <c r="F674" t="n">
-        <v>0.19047619047619</v>
+        <v>4.84210526315789</v>
       </c>
       <c r="G674" t="n">
-        <v>4.14285714285714</v>
+        <v>1.52631578947368</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>pungent</t>
+          <t>puny</t>
         </is>
       </c>
       <c r="C675" t="n">
-        <v>0.210526315789474</v>
+        <v>0.647058823529412</v>
       </c>
       <c r="D675" t="n">
-        <v>2.21052631578947</v>
+        <v>0.411764705882353</v>
       </c>
       <c r="E675" t="n">
-        <v>0.315789473684211</v>
+        <v>2.64705882352941</v>
       </c>
       <c r="F675" t="n">
-        <v>4.84210526315789</v>
+        <v>0.294117647058824</v>
       </c>
       <c r="G675" t="n">
-        <v>1.52631578947368</v>
+        <v>4.47058823529412</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>puny</t>
+          <t>purple</t>
         </is>
       </c>
       <c r="C676" t="n">
-        <v>0.647058823529412</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="D676" t="n">
-        <v>0.411764705882353</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="E676" t="n">
-        <v>2.64705882352941</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="F676" t="n">
-        <v>0.294117647058824</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="G676" t="n">
-        <v>4.47058823529412</v>
+        <v>5</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>purple</t>
+          <t>purring</t>
         </is>
       </c>
       <c r="C677" t="n">
-        <v>0.19047619047619</v>
+        <v>4.85714285714286</v>
       </c>
       <c r="D677" t="n">
-        <v>0.142857142857143</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="E677" t="n">
-        <v>0.0476190476190476</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="F677" t="n">
         <v>0.09523809523809521</v>
       </c>
       <c r="G677" t="n">
-        <v>5</v>
+        <v>2.23809523809524</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="1" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>purring</t>
+          <t>putrid</t>
         </is>
       </c>
       <c r="C678" t="n">
-        <v>4.85714285714286</v>
+        <v>0.368421052631579</v>
       </c>
       <c r="D678" t="n">
-        <v>0.0476190476190476</v>
+        <v>3.31578947368421</v>
       </c>
       <c r="E678" t="n">
-        <v>0.857142857142857</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="F678" t="n">
-        <v>0.09523809523809521</v>
+        <v>3.89473684210526</v>
       </c>
       <c r="G678" t="n">
-        <v>2.23809523809524</v>
+        <v>2.42105263157895</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>putrid</t>
+          <t>quiet</t>
         </is>
       </c>
       <c r="C679" t="n">
-        <v>0.368421052631579</v>
+        <v>4.95238095238095</v>
       </c>
       <c r="D679" t="n">
-        <v>3.31578947368421</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="E679" t="n">
-        <v>0.631578947368421</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="F679" t="n">
-        <v>3.89473684210526</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="G679" t="n">
-        <v>2.42105263157895</v>
+        <v>2.0952380952381</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>quiet</t>
+          <t>radiant</t>
         </is>
       </c>
       <c r="C680" t="n">
-        <v>4.95238095238095</v>
+        <v>1.28571428571429</v>
       </c>
       <c r="D680" t="n">
-        <v>0.0476190476190476</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="E680" t="n">
-        <v>0.09523809523809521</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="F680" t="n">
-        <v>0.09523809523809521</v>
+        <v>1</v>
       </c>
       <c r="G680" t="n">
-        <v>2.0952380952381</v>
+        <v>4.38095238095238</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="1" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>radiant</t>
+          <t>rancid</t>
         </is>
       </c>
       <c r="C681" t="n">
-        <v>1.28571428571429</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="D681" t="n">
-        <v>0.428571428571429</v>
+        <v>3.23809523809524</v>
       </c>
       <c r="E681" t="n">
-        <v>0.80952380952381</v>
+        <v>1.57142857142857</v>
       </c>
       <c r="F681" t="n">
-        <v>1</v>
+        <v>4.19047619047619</v>
       </c>
       <c r="G681" t="n">
-        <v>4.38095238095238</v>
+        <v>3.0952380952381</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="1" t="n">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>rancid</t>
+          <t>raspy</t>
         </is>
       </c>
       <c r="C682" t="n">
-        <v>0.857142857142857</v>
+        <v>3.64705882352941</v>
       </c>
       <c r="D682" t="n">
-        <v>3.23809523809524</v>
+        <v>0.529411764705882</v>
       </c>
       <c r="E682" t="n">
-        <v>1.57142857142857</v>
+        <v>1.17647058823529</v>
       </c>
       <c r="F682" t="n">
-        <v>4.19047619047619</v>
+        <v>0.647058823529412</v>
       </c>
       <c r="G682" t="n">
-        <v>3.0952380952381</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="1" t="n">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>raspy</t>
+          <t>raucous</t>
         </is>
       </c>
       <c r="C683" t="n">
-        <v>3.64705882352941</v>
+        <v>4.53846153846154</v>
       </c>
       <c r="D683" t="n">
-        <v>0.529411764705882</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="E683" t="n">
-        <v>1.17647058823529</v>
+        <v>0.153846153846154</v>
       </c>
       <c r="F683" t="n">
-        <v>0.647058823529412</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="G683" t="n">
-        <v>2</v>
+        <v>3.23076923076923</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="1" t="n">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>raucous</t>
+          <t>rectangular</t>
         </is>
       </c>
       <c r="C684" t="n">
-        <v>4.53846153846154</v>
+        <v>0</v>
       </c>
       <c r="D684" t="n">
-        <v>0.230769230769231</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="E684" t="n">
-        <v>0.153846153846154</v>
+        <v>3.95238095238095</v>
       </c>
       <c r="F684" t="n">
-        <v>0.307692307692308</v>
+        <v>0</v>
       </c>
       <c r="G684" t="n">
-        <v>3.23076923076923</v>
+        <v>4.80952380952381</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="1" t="n">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>rectangular</t>
+          <t>red</t>
         </is>
       </c>
       <c r="C685" t="n">
-        <v>0</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="D685" t="n">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="E685" t="n">
         <v>0.09523809523809521</v>
       </c>
-      <c r="E685" t="n">
-        <v>3.95238095238095</v>
-      </c>
       <c r="F685" t="n">
-        <v>0</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="G685" t="n">
-        <v>4.80952380952381</v>
+        <v>4.71428571428571</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="1" t="n">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>reddish</t>
         </is>
       </c>
       <c r="C686" t="n">
-        <v>0.19047619047619</v>
+        <v>0.1</v>
       </c>
       <c r="D686" t="n">
-        <v>0.285714285714286</v>
+        <v>0.2</v>
       </c>
       <c r="E686" t="n">
-        <v>0.09523809523809521</v>
+        <v>0.15</v>
       </c>
       <c r="F686" t="n">
-        <v>0.285714285714286</v>
+        <v>0.2</v>
       </c>
       <c r="G686" t="n">
-        <v>4.71428571428571</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="1" t="n">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>reddish</t>
+          <t>reeking</t>
         </is>
       </c>
       <c r="C687" t="n">
-        <v>0.1</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="D687" t="n">
-        <v>0.2</v>
+        <v>2.05263157894737</v>
       </c>
       <c r="E687" t="n">
-        <v>0.15</v>
+        <v>0.157894736842105</v>
       </c>
       <c r="F687" t="n">
-        <v>0.2</v>
+        <v>4.94736842105263</v>
       </c>
       <c r="G687" t="n">
-        <v>4.7</v>
+        <v>1.36842105263158</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="1" t="n">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>reeking</t>
+          <t>resounding</t>
         </is>
       </c>
       <c r="C688" t="n">
-        <v>0.105263157894737</v>
+        <v>3.83333333333333</v>
       </c>
       <c r="D688" t="n">
-        <v>2.05263157894737</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="E688" t="n">
-        <v>0.157894736842105</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="F688" t="n">
-        <v>4.94736842105263</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="G688" t="n">
-        <v>1.36842105263158</v>
+        <v>1.83333333333333</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="1" t="n">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>resounding</t>
+          <t>reverberating</t>
         </is>
       </c>
       <c r="C689" t="n">
-        <v>3.83333333333333</v>
+        <v>3.30769230769231</v>
       </c>
       <c r="D689" t="n">
-        <v>0.0555555555555556</v>
+        <v>0</v>
       </c>
       <c r="E689" t="n">
-        <v>0.444444444444444</v>
+        <v>2.30769230769231</v>
       </c>
       <c r="F689" t="n">
-        <v>0.0555555555555556</v>
+        <v>0</v>
       </c>
       <c r="G689" t="n">
-        <v>1.83333333333333</v>
+        <v>2.15384615384615</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="1" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>reverberating</t>
+          <t>rhythmic</t>
         </is>
       </c>
       <c r="C690" t="n">
-        <v>3.30769230769231</v>
+        <v>4.61904761904762</v>
       </c>
       <c r="D690" t="n">
         <v>0</v>
       </c>
       <c r="E690" t="n">
-        <v>2.30769230769231</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="F690" t="n">
-        <v>0</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="G690" t="n">
-        <v>2.15384615384615</v>
+        <v>2.47619047619048</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="1" t="n">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>rhythmic</t>
+          <t>ripe</t>
         </is>
       </c>
       <c r="C691" t="n">
-        <v>4.61904761904762</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="D691" t="n">
-        <v>0</v>
+        <v>4.52380952380952</v>
       </c>
       <c r="E691" t="n">
-        <v>1.33333333333333</v>
+        <v>3.38095238095238</v>
       </c>
       <c r="F691" t="n">
-        <v>0.09523809523809521</v>
+        <v>3.66666666666667</v>
       </c>
       <c r="G691" t="n">
-        <v>2.47619047619048</v>
+        <v>4.14285714285714</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="1" t="n">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>ripe</t>
+          <t>rippled</t>
         </is>
       </c>
       <c r="C692" t="n">
-        <v>0.09523809523809521</v>
+        <v>2</v>
       </c>
       <c r="D692" t="n">
-        <v>4.52380952380952</v>
+        <v>0.5</v>
       </c>
       <c r="E692" t="n">
-        <v>3.38095238095238</v>
+        <v>3.9</v>
       </c>
       <c r="F692" t="n">
-        <v>3.66666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="G692" t="n">
-        <v>4.14285714285714</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="1" t="n">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>rippled</t>
+          <t>rippling</t>
         </is>
       </c>
       <c r="C693" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D693" t="n">
-        <v>0.5</v>
+        <v>0.8947368421052631</v>
       </c>
       <c r="E693" t="n">
-        <v>3.9</v>
+        <v>3.47368421052632</v>
       </c>
       <c r="F693" t="n">
-        <v>0.25</v>
+        <v>0.368421052631579</v>
       </c>
       <c r="G693" t="n">
-        <v>4.25</v>
+        <v>4.63157894736842</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="1" t="n">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>rippling</t>
+          <t>roasted</t>
         </is>
       </c>
       <c r="C694" t="n">
-        <v>3</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="D694" t="n">
-        <v>0.8947368421052631</v>
+        <v>4.42857142857143</v>
       </c>
       <c r="E694" t="n">
-        <v>3.47368421052632</v>
+        <v>1.76190476190476</v>
       </c>
       <c r="F694" t="n">
-        <v>0.368421052631579</v>
+        <v>3.85714285714286</v>
       </c>
       <c r="G694" t="n">
-        <v>4.63157894736842</v>
+        <v>4.19047619047619</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="1" t="n">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>roasted</t>
+          <t>roasting</t>
         </is>
       </c>
       <c r="C695" t="n">
-        <v>1.33333333333333</v>
+        <v>1.47619047619048</v>
       </c>
       <c r="D695" t="n">
-        <v>4.42857142857143</v>
+        <v>3.33333333333333</v>
       </c>
       <c r="E695" t="n">
-        <v>1.76190476190476</v>
+        <v>2.33333333333333</v>
       </c>
       <c r="F695" t="n">
-        <v>3.85714285714286</v>
+        <v>3.80952380952381</v>
       </c>
       <c r="G695" t="n">
-        <v>4.19047619047619</v>
+        <v>4.04761904761905</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="1" t="n">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>roasting</t>
+          <t>rotten</t>
         </is>
       </c>
       <c r="C696" t="n">
-        <v>1.47619047619048</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="D696" t="n">
-        <v>3.33333333333333</v>
+        <v>3.28571428571429</v>
       </c>
       <c r="E696" t="n">
-        <v>2.33333333333333</v>
+        <v>2.57142857142857</v>
       </c>
       <c r="F696" t="n">
-        <v>3.80952380952381</v>
+        <v>3.95238095238095</v>
       </c>
       <c r="G696" t="n">
-        <v>4.04761904761905</v>
+        <v>4.09523809523809</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="1" t="n">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>rotten</t>
+          <t>rotund</t>
         </is>
       </c>
       <c r="C697" t="n">
-        <v>0.19047619047619</v>
+        <v>0.2</v>
       </c>
       <c r="D697" t="n">
-        <v>3.28571428571429</v>
+        <v>0.1</v>
       </c>
       <c r="E697" t="n">
-        <v>2.57142857142857</v>
+        <v>2.7</v>
       </c>
       <c r="F697" t="n">
-        <v>3.95238095238095</v>
+        <v>0</v>
       </c>
       <c r="G697" t="n">
-        <v>4.09523809523809</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="1" t="n">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>rotund</t>
+          <t>rough</t>
         </is>
       </c>
       <c r="C698" t="n">
-        <v>0.2</v>
+        <v>2.28571428571429</v>
       </c>
       <c r="D698" t="n">
-        <v>0.1</v>
+        <v>1.61904761904762</v>
       </c>
       <c r="E698" t="n">
-        <v>2.7</v>
+        <v>4.90476190476191</v>
       </c>
       <c r="F698" t="n">
-        <v>0</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="G698" t="n">
-        <v>3.9</v>
+        <v>4.04761904761905</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="1" t="n">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>rough</t>
+          <t>round</t>
         </is>
       </c>
       <c r="C699" t="n">
-        <v>2.28571428571429</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="D699" t="n">
-        <v>1.61904761904762</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="E699" t="n">
-        <v>4.90476190476191</v>
+        <v>4.38095238095238</v>
       </c>
       <c r="F699" t="n">
-        <v>0.714285714285714</v>
+        <v>0</v>
       </c>
       <c r="G699" t="n">
-        <v>4.04761904761905</v>
+        <v>4.47619047619048</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="1" t="n">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>round</t>
+          <t>rubbery</t>
         </is>
       </c>
       <c r="C700" t="n">
-        <v>0.238095238095238</v>
+        <v>1.14285714285714</v>
       </c>
       <c r="D700" t="n">
-        <v>0.19047619047619</v>
+        <v>2.14285714285714</v>
       </c>
       <c r="E700" t="n">
-        <v>4.38095238095238</v>
+        <v>4.5</v>
       </c>
       <c r="F700" t="n">
-        <v>0</v>
+        <v>2.14285714285714</v>
       </c>
       <c r="G700" t="n">
-        <v>4.47619047619048</v>
+        <v>3.61904761904762</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="1" t="n">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>rubbery</t>
+          <t>rumbling</t>
         </is>
       </c>
       <c r="C701" t="n">
-        <v>1.14285714285714</v>
+        <v>4.23809523809524</v>
       </c>
       <c r="D701" t="n">
-        <v>2.14285714285714</v>
+        <v>0.2</v>
       </c>
       <c r="E701" t="n">
-        <v>4.5</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="F701" t="n">
-        <v>2.14285714285714</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="G701" t="n">
-        <v>3.61904761904762</v>
+        <v>2.47619047619048</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="1" t="n">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>rumbling</t>
+          <t>rustling</t>
         </is>
       </c>
       <c r="C702" t="n">
-        <v>4.23809523809524</v>
+        <v>4.66666666666667</v>
       </c>
       <c r="D702" t="n">
         <v>0.2</v>
       </c>
       <c r="E702" t="n">
-        <v>1.66666666666667</v>
+        <v>2.52380952380952</v>
       </c>
       <c r="F702" t="n">
-        <v>0.238095238095238</v>
+        <v>0.55</v>
       </c>
       <c r="G702" t="n">
-        <v>2.47619047619048</v>
+        <v>3.04761904761905</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="1" t="n">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>rustling</t>
+          <t>rusty</t>
         </is>
       </c>
       <c r="C703" t="n">
-        <v>4.66666666666667</v>
+        <v>1.14285714285714</v>
       </c>
       <c r="D703" t="n">
-        <v>0.2</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E703" t="n">
-        <v>2.52380952380952</v>
+        <v>3</v>
       </c>
       <c r="F703" t="n">
-        <v>0.55</v>
+        <v>1.57142857142857</v>
       </c>
       <c r="G703" t="n">
-        <v>3.04761904761905</v>
+        <v>4.28571428571429</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="1" t="n">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>rusty</t>
+          <t>salty</t>
         </is>
       </c>
       <c r="C704" t="n">
-        <v>1.14285714285714</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="D704" t="n">
+        <v>4.80952380952381</v>
+      </c>
+      <c r="E704" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="E704" t="n">
-        <v>3</v>
-      </c>
       <c r="F704" t="n">
-        <v>1.57142857142857</v>
+        <v>1.71428571428571</v>
       </c>
       <c r="G704" t="n">
-        <v>4.28571428571429</v>
+        <v>1.85714285714286</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="1" t="n">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>salty</t>
+          <t>savoury</t>
         </is>
       </c>
       <c r="C705" t="n">
-        <v>0.0476190476190476</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="D705" t="n">
-        <v>4.80952380952381</v>
+        <v>5</v>
       </c>
       <c r="E705" t="n">
-        <v>0.666666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F705" t="n">
-        <v>1.71428571428571</v>
+        <v>3.52380952380952</v>
       </c>
       <c r="G705" t="n">
-        <v>1.85714285714286</v>
+        <v>2.66666666666667</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="1" t="n">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>savoury</t>
+          <t>scaly</t>
         </is>
       </c>
       <c r="C706" t="n">
-        <v>0.19047619047619</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="D706" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E706" t="n">
-        <v>0.333333333333333</v>
+        <v>4.42857142857143</v>
       </c>
       <c r="F706" t="n">
-        <v>3.52380952380952</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="G706" t="n">
-        <v>2.66666666666667</v>
+        <v>4.33333333333333</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="1" t="n">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>scaly</t>
+          <t>scented</t>
         </is>
       </c>
       <c r="C707" t="n">
-        <v>0.142857142857143</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="D707" t="n">
+        <v>2.33333333333333</v>
+      </c>
+      <c r="E707" t="n">
+        <v>0.09523809523809521</v>
+      </c>
+      <c r="F707" t="n">
+        <v>4.76190476190476</v>
+      </c>
+      <c r="G707" t="n">
         <v>1</v>
-      </c>
-      <c r="E707" t="n">
-        <v>4.42857142857143</v>
-      </c>
-      <c r="F707" t="n">
-        <v>0.09523809523809521</v>
-      </c>
-      <c r="G707" t="n">
-        <v>4.33333333333333</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="1" t="n">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>scented</t>
+          <t>scentless</t>
         </is>
       </c>
       <c r="C708" t="n">
-        <v>0.0476190476190476</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="D708" t="n">
-        <v>2.33333333333333</v>
+        <v>2.38095238095238</v>
       </c>
       <c r="E708" t="n">
-        <v>0.09523809523809521</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="F708" t="n">
-        <v>4.76190476190476</v>
+        <v>4.42857142857143</v>
       </c>
       <c r="G708" t="n">
         <v>1</v>
@@ -18142,324 +18142,324 @@
     </row>
     <row r="709">
       <c r="A709" s="1" t="n">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>scentless</t>
+          <t>scratchy</t>
         </is>
       </c>
       <c r="C709" t="n">
-        <v>0.19047619047619</v>
+        <v>3.28571428571429</v>
       </c>
       <c r="D709" t="n">
-        <v>2.38095238095238</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="E709" t="n">
-        <v>0.19047619047619</v>
+        <v>4.14285714285714</v>
       </c>
       <c r="F709" t="n">
-        <v>4.42857142857143</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="G709" t="n">
-        <v>1</v>
+        <v>2.85714285714286</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="1" t="n">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>scratchy</t>
+          <t>scrawny</t>
         </is>
       </c>
       <c r="C710" t="n">
-        <v>3.28571428571429</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="D710" t="n">
-        <v>0.0476190476190476</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="E710" t="n">
-        <v>4.14285714285714</v>
+        <v>2.57142857142857</v>
       </c>
       <c r="F710" t="n">
-        <v>0.09523809523809521</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="G710" t="n">
-        <v>2.85714285714286</v>
+        <v>4.76190476190476</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="1" t="n">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>scrawny</t>
+          <t>screaming</t>
         </is>
       </c>
       <c r="C711" t="n">
-        <v>0.666666666666667</v>
+        <v>4.95238095238095</v>
       </c>
       <c r="D711" t="n">
-        <v>0.285714285714286</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="E711" t="n">
-        <v>2.57142857142857</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="F711" t="n">
-        <v>0.285714285714286</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="G711" t="n">
-        <v>4.76190476190476</v>
+        <v>2.80952380952381</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="1" t="n">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>screaming</t>
+          <t>screeching</t>
         </is>
       </c>
       <c r="C712" t="n">
         <v>4.95238095238095</v>
       </c>
       <c r="D712" t="n">
-        <v>0.0476190476190476</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="E712" t="n">
-        <v>0.142857142857143</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F712" t="n">
-        <v>0.0476190476190476</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="G712" t="n">
-        <v>2.80952380952381</v>
+        <v>2.33333333333333</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="1" t="n">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>screeching</t>
+          <t>searing</t>
         </is>
       </c>
       <c r="C713" t="n">
-        <v>4.95238095238095</v>
+        <v>2.2</v>
       </c>
       <c r="D713" t="n">
-        <v>0.09523809523809521</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="E713" t="n">
-        <v>0.333333333333333</v>
+        <v>1.86666666666667</v>
       </c>
       <c r="F713" t="n">
-        <v>0.238095238095238</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="G713" t="n">
-        <v>2.33333333333333</v>
+        <v>3.66666666666667</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="1" t="n">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>searing</t>
+          <t>shadowy</t>
         </is>
       </c>
       <c r="C714" t="n">
-        <v>2.2</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="D714" t="n">
-        <v>0.466666666666667</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="E714" t="n">
-        <v>1.86666666666667</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="F714" t="n">
-        <v>0.666666666666667</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="G714" t="n">
-        <v>3.66666666666667</v>
+        <v>4.71428571428571</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="1" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>shadowy</t>
+          <t>shaggy</t>
         </is>
       </c>
       <c r="C715" t="n">
-        <v>0.285714285714286</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="D715" t="n">
-        <v>0.142857142857143</v>
+        <v>0</v>
       </c>
       <c r="E715" t="n">
-        <v>0.285714285714286</v>
+        <v>4.09523809523809</v>
       </c>
       <c r="F715" t="n">
         <v>0.142857142857143</v>
       </c>
       <c r="G715" t="n">
-        <v>4.71428571428571</v>
+        <v>4.19047619047619</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="1" t="n">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>shaggy</t>
+          <t>shallow</t>
         </is>
       </c>
       <c r="C716" t="n">
+        <v>1.38095238095238</v>
+      </c>
+      <c r="D716" t="n">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="E716" t="n">
+        <v>3.33333333333333</v>
+      </c>
+      <c r="F716" t="n">
         <v>0.19047619047619</v>
       </c>
-      <c r="D716" t="n">
-        <v>0</v>
-      </c>
-      <c r="E716" t="n">
-        <v>4.09523809523809</v>
-      </c>
-      <c r="F716" t="n">
-        <v>0.142857142857143</v>
-      </c>
       <c r="G716" t="n">
-        <v>4.19047619047619</v>
+        <v>4.23809523809524</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="1" t="n">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>shallow</t>
+          <t>sharp</t>
         </is>
       </c>
       <c r="C717" t="n">
-        <v>1.38095238095238</v>
+        <v>1.04761904761905</v>
       </c>
       <c r="D717" t="n">
-        <v>0.285714285714286</v>
+        <v>1.19047619047619</v>
       </c>
       <c r="E717" t="n">
-        <v>3.33333333333333</v>
+        <v>4.57142857142857</v>
       </c>
       <c r="F717" t="n">
-        <v>0.19047619047619</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="G717" t="n">
-        <v>4.23809523809524</v>
+        <v>4.42857142857143</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="1" t="n">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>sharp</t>
+          <t>sheer</t>
         </is>
       </c>
       <c r="C718" t="n">
-        <v>1.04761904761905</v>
+        <v>0.578947368421053</v>
       </c>
       <c r="D718" t="n">
-        <v>1.19047619047619</v>
+        <v>0</v>
       </c>
       <c r="E718" t="n">
-        <v>4.57142857142857</v>
+        <v>2.89473684210526</v>
       </c>
       <c r="F718" t="n">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G718" t="n">
-        <v>4.42857142857143</v>
+        <v>4.52631578947368</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="1" t="n">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>sheer</t>
+          <t>shimmering</t>
         </is>
       </c>
       <c r="C719" t="n">
-        <v>0.578947368421053</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="D719" t="n">
-        <v>0</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="E719" t="n">
-        <v>2.89473684210526</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="F719" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="G719" t="n">
-        <v>4.52631578947368</v>
+        <v>4.76190476190476</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="1" t="n">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>shimmering</t>
+          <t>shiny</t>
         </is>
       </c>
       <c r="C720" t="n">
-        <v>0.761904761904762</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="D720" t="n">
-        <v>0.238095238095238</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="E720" t="n">
-        <v>0.857142857142857</v>
+        <v>1.85714285714286</v>
       </c>
       <c r="F720" t="n">
-        <v>0.333333333333333</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="G720" t="n">
-        <v>4.76190476190476</v>
+        <v>4.95238095238095</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="1" t="n">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>shiny</t>
+          <t>short</t>
         </is>
       </c>
       <c r="C721" t="n">
-        <v>0.09523809523809521</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="D721" t="n">
-        <v>0.0476190476190476</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="E721" t="n">
-        <v>1.85714285714286</v>
+        <v>3.23809523809524</v>
       </c>
       <c r="F721" t="n">
-        <v>0.0476190476190476</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="G721" t="n">
         <v>4.95238095238095</v>
@@ -18467,199 +18467,199 @@
     </row>
     <row r="722">
       <c r="A722" s="1" t="n">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>shrieking</t>
         </is>
       </c>
       <c r="C722" t="n">
-        <v>0.571428571428571</v>
+        <v>4.95238095238095</v>
       </c>
       <c r="D722" t="n">
         <v>0.142857142857143</v>
       </c>
       <c r="E722" t="n">
-        <v>3.23809523809524</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="F722" t="n">
         <v>0.142857142857143</v>
       </c>
       <c r="G722" t="n">
-        <v>4.95238095238095</v>
+        <v>2.71428571428571</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="1" t="n">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>shrieking</t>
+          <t>shrill</t>
         </is>
       </c>
       <c r="C723" t="n">
-        <v>4.95238095238095</v>
+        <v>4.78947368421053</v>
       </c>
       <c r="D723" t="n">
-        <v>0.142857142857143</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="E723" t="n">
-        <v>0.142857142857143</v>
+        <v>0.263157894736842</v>
       </c>
       <c r="F723" t="n">
-        <v>0.142857142857143</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="G723" t="n">
-        <v>2.71428571428571</v>
+        <v>1.52631578947368</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="1" t="n">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>shrill</t>
+          <t>silent</t>
         </is>
       </c>
       <c r="C724" t="n">
-        <v>4.78947368421053</v>
+        <v>5</v>
       </c>
       <c r="D724" t="n">
-        <v>0.105263157894737</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="E724" t="n">
-        <v>0.263157894736842</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="F724" t="n">
-        <v>0.105263157894737</v>
+        <v>0</v>
       </c>
       <c r="G724" t="n">
-        <v>1.52631578947368</v>
+        <v>1.95238095238095</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="1" t="n">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>silent</t>
+          <t>silky</t>
         </is>
       </c>
       <c r="C725" t="n">
-        <v>5</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="D725" t="n">
-        <v>0.09523809523809521</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="E725" t="n">
-        <v>0.142857142857143</v>
+        <v>4.90476190476191</v>
       </c>
       <c r="F725" t="n">
         <v>0</v>
       </c>
       <c r="G725" t="n">
-        <v>1.95238095238095</v>
+        <v>3.76190476190476</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="1" t="n">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>silky</t>
+          <t>silver</t>
         </is>
       </c>
       <c r="C726" t="n">
+        <v>0.0476190476190476</v>
+      </c>
+      <c r="D726" t="n">
         <v>0.238095238095238</v>
       </c>
-      <c r="D726" t="n">
-        <v>0.380952380952381</v>
-      </c>
       <c r="E726" t="n">
-        <v>4.90476190476191</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F726" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="G726" t="n">
-        <v>3.76190476190476</v>
+        <v>4.57142857142857</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="1" t="n">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>silver</t>
+          <t>skinny</t>
         </is>
       </c>
       <c r="C727" t="n">
-        <v>0.0476190476190476</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="D727" t="n">
-        <v>0.238095238095238</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="E727" t="n">
-        <v>0.666666666666667</v>
+        <v>4</v>
       </c>
       <c r="F727" t="n">
-        <v>0.333333333333333</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="G727" t="n">
-        <v>4.57142857142857</v>
+        <v>4.90476190476191</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="1" t="n">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>skinny</t>
+          <t>slick</t>
         </is>
       </c>
       <c r="C728" t="n">
-        <v>0.380952380952381</v>
+        <v>1.57142857142857</v>
       </c>
       <c r="D728" t="n">
         <v>0.142857142857143</v>
       </c>
       <c r="E728" t="n">
-        <v>4</v>
+        <v>3.52380952380952</v>
       </c>
       <c r="F728" t="n">
         <v>0.19047619047619</v>
       </c>
       <c r="G728" t="n">
-        <v>4.90476190476191</v>
+        <v>3.80952380952381</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="1" t="n">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>slick</t>
+          <t>slimy</t>
         </is>
       </c>
       <c r="C729" t="n">
-        <v>1.57142857142857</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="D729" t="n">
-        <v>0.142857142857143</v>
+        <v>2.04761904761905</v>
       </c>
       <c r="E729" t="n">
-        <v>3.52380952380952</v>
+        <v>4.52380952380952</v>
       </c>
       <c r="F729" t="n">
-        <v>0.19047619047619</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="G729" t="n">
         <v>3.80952380952381</v>
@@ -18667,2376 +18667,2351 @@
     </row>
     <row r="730">
       <c r="A730" s="1" t="n">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>slimy</t>
+          <t>slippery</t>
         </is>
       </c>
       <c r="C730" t="n">
-        <v>0.80952380952381</v>
+        <v>1.47619047619048</v>
       </c>
       <c r="D730" t="n">
-        <v>2.04761904761905</v>
+        <v>1.28571428571429</v>
       </c>
       <c r="E730" t="n">
-        <v>4.52380952380952</v>
+        <v>4.61904761904762</v>
       </c>
       <c r="F730" t="n">
-        <v>0.857142857142857</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="G730" t="n">
-        <v>3.80952380952381</v>
+        <v>3.85714285714286</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="1" t="n">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>slippery</t>
+          <t>slushy</t>
         </is>
       </c>
       <c r="C731" t="n">
-        <v>1.47619047619048</v>
+        <v>2.23809523809524</v>
       </c>
       <c r="D731" t="n">
-        <v>1.28571428571429</v>
+        <v>1.85714285714286</v>
       </c>
       <c r="E731" t="n">
-        <v>4.61904761904762</v>
+        <v>3.52380952380952</v>
       </c>
       <c r="F731" t="n">
-        <v>0.476190476190476</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="G731" t="n">
-        <v>3.85714285714286</v>
+        <v>3.57142857142857</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="1" t="n">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>slushy</t>
+          <t>small</t>
         </is>
       </c>
       <c r="C732" t="n">
-        <v>2.23809523809524</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="D732" t="n">
-        <v>1.85714285714286</v>
+        <v>0</v>
       </c>
       <c r="E732" t="n">
-        <v>3.52380952380952</v>
+        <v>3.66666666666667</v>
       </c>
       <c r="F732" t="n">
-        <v>0.428571428571429</v>
+        <v>0</v>
       </c>
       <c r="G732" t="n">
-        <v>3.57142857142857</v>
+        <v>4.95238095238095</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="1" t="n">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>smelly</t>
         </is>
       </c>
       <c r="C733" t="n">
-        <v>0.428571428571429</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="D733" t="n">
-        <v>0</v>
+        <v>1.42857142857143</v>
       </c>
       <c r="E733" t="n">
-        <v>3.66666666666667</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="F733" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G733" t="n">
-        <v>4.95238095238095</v>
+        <v>1.38095238095238</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="1" t="n">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>smelly</t>
+          <t>smoky</t>
         </is>
       </c>
       <c r="C734" t="n">
-        <v>0.333333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="D734" t="n">
-        <v>1.42857142857143</v>
+        <v>3.33333333333333</v>
       </c>
       <c r="E734" t="n">
-        <v>0.238095238095238</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="F734" t="n">
-        <v>5</v>
+        <v>4.57142857142857</v>
       </c>
       <c r="G734" t="n">
-        <v>1.38095238095238</v>
+        <v>4.52380952380952</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="1" t="n">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>smoky</t>
+          <t>smooth</t>
         </is>
       </c>
       <c r="C735" t="n">
-        <v>0.666666666666667</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="D735" t="n">
-        <v>3.33333333333333</v>
+        <v>1.85714285714286</v>
       </c>
       <c r="E735" t="n">
-        <v>0.476190476190476</v>
+        <v>4.95238095238095</v>
       </c>
       <c r="F735" t="n">
-        <v>4.57142857142857</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="G735" t="n">
-        <v>4.52380952380952</v>
+        <v>4.14285714285714</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="1" t="n">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>smooth</t>
+          <t>snarling</t>
         </is>
       </c>
       <c r="C736" t="n">
-        <v>1.33333333333333</v>
+        <v>4.38095238095238</v>
       </c>
       <c r="D736" t="n">
-        <v>1.85714285714286</v>
+        <v>0</v>
       </c>
       <c r="E736" t="n">
-        <v>4.95238095238095</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="F736" t="n">
-        <v>0.380952380952381</v>
+        <v>0</v>
       </c>
       <c r="G736" t="n">
-        <v>4.14285714285714</v>
+        <v>3.52380952380952</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="1" t="n">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>snarling</t>
+          <t>snorting</t>
         </is>
       </c>
       <c r="C737" t="n">
-        <v>4.38095238095238</v>
+        <v>4.65</v>
       </c>
       <c r="D737" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="E737" t="n">
-        <v>0.238095238095238</v>
+        <v>0.3</v>
       </c>
       <c r="F737" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="G737" t="n">
-        <v>3.52380952380952</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="1" t="n">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>snorting</t>
+          <t>soapy</t>
         </is>
       </c>
       <c r="C738" t="n">
-        <v>4.65</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="D738" t="n">
-        <v>0.35</v>
+        <v>1.71428571428571</v>
       </c>
       <c r="E738" t="n">
-        <v>0.3</v>
+        <v>3.66666666666667</v>
       </c>
       <c r="F738" t="n">
-        <v>0.35</v>
+        <v>3.19047619047619</v>
       </c>
       <c r="G738" t="n">
-        <v>2.8</v>
+        <v>3.80952380952381</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="1" t="n">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>soapy</t>
+          <t>sodden</t>
         </is>
       </c>
       <c r="C739" t="n">
-        <v>0.666666666666667</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="D739" t="n">
-        <v>1.71428571428571</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="E739" t="n">
+        <v>3.55555555555556</v>
+      </c>
+      <c r="F739" t="n">
+        <v>0.722222222222222</v>
+      </c>
+      <c r="G739" t="n">
         <v>3.66666666666667</v>
-      </c>
-      <c r="F739" t="n">
-        <v>3.19047619047619</v>
-      </c>
-      <c r="G739" t="n">
-        <v>3.80952380952381</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="1" t="n">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>sodden</t>
+          <t>soft</t>
         </is>
       </c>
       <c r="C740" t="n">
-        <v>0.388888888888889</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="D740" t="n">
-        <v>0.111111111111111</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="E740" t="n">
-        <v>3.55555555555556</v>
+        <v>4.95238095238095</v>
       </c>
       <c r="F740" t="n">
-        <v>0.722222222222222</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="G740" t="n">
-        <v>3.66666666666667</v>
+        <v>4.14285714285714</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="1" t="n">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>soft</t>
+          <t>soggy</t>
         </is>
       </c>
       <c r="C741" t="n">
-        <v>1.66666666666667</v>
+        <v>1.23809523809524</v>
       </c>
       <c r="D741" t="n">
-        <v>1.33333333333333</v>
+        <v>2.04761904761905</v>
       </c>
       <c r="E741" t="n">
-        <v>4.95238095238095</v>
+        <v>4.28571428571429</v>
       </c>
       <c r="F741" t="n">
-        <v>0.666666666666667</v>
+        <v>1.19047619047619</v>
       </c>
       <c r="G741" t="n">
-        <v>4.14285714285714</v>
+        <v>3.95238095238095</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="1" t="n">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>soggy</t>
+          <t>solid</t>
         </is>
       </c>
       <c r="C742" t="n">
-        <v>1.23809523809524</v>
+        <v>1.85714285714286</v>
       </c>
       <c r="D742" t="n">
-        <v>2.04761904761905</v>
+        <v>1.71428571428571</v>
       </c>
       <c r="E742" t="n">
-        <v>4.28571428571429</v>
+        <v>4.80952380952381</v>
       </c>
       <c r="F742" t="n">
-        <v>1.19047619047619</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="G742" t="n">
-        <v>3.95238095238095</v>
+        <v>4.57142857142857</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="1" t="n">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>solid</t>
+          <t>sonorous</t>
         </is>
       </c>
       <c r="C743" t="n">
-        <v>1.85714285714286</v>
+        <v>4.77777777777778</v>
       </c>
       <c r="D743" t="n">
-        <v>1.71428571428571</v>
+        <v>0</v>
       </c>
       <c r="E743" t="n">
-        <v>4.80952380952381</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="F743" t="n">
-        <v>0.19047619047619</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="G743" t="n">
-        <v>4.57142857142857</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="1" t="n">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>sonorous</t>
+          <t>sore</t>
         </is>
       </c>
       <c r="C744" t="n">
-        <v>4.77777777777778</v>
+        <v>1.04761904761905</v>
       </c>
       <c r="D744" t="n">
-        <v>0</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="E744" t="n">
-        <v>0.888888888888889</v>
+        <v>4.28571428571429</v>
       </c>
       <c r="F744" t="n">
-        <v>0.111111111111111</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="G744" t="n">
-        <v>0.666666666666667</v>
+        <v>3.19047619047619</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="1" t="n">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>sore</t>
+          <t>soundless</t>
         </is>
       </c>
       <c r="C745" t="n">
-        <v>1.04761904761905</v>
+        <v>4.42857142857143</v>
       </c>
       <c r="D745" t="n">
-        <v>0.09523809523809521</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="E745" t="n">
-        <v>4.28571428571429</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F745" t="n">
-        <v>0.09523809523809521</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="G745" t="n">
-        <v>3.19047619047619</v>
+        <v>1.71428571428571</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" s="1" t="n">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>soundless</t>
+          <t>sour</t>
         </is>
       </c>
       <c r="C746" t="n">
-        <v>4.42857142857143</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="D746" t="n">
+        <v>4.80952380952381</v>
+      </c>
+      <c r="E746" t="n">
         <v>0.0476190476190476</v>
       </c>
-      <c r="E746" t="n">
-        <v>0.333333333333333</v>
-      </c>
       <c r="F746" t="n">
-        <v>0.0476190476190476</v>
+        <v>2.71428571428571</v>
       </c>
       <c r="G746" t="n">
-        <v>1.71428571428571</v>
+        <v>1.19047619047619</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="1" t="n">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>sour</t>
+          <t>sparkly</t>
         </is>
       </c>
       <c r="C747" t="n">
+        <v>1.19047619047619</v>
+      </c>
+      <c r="D747" t="n">
+        <v>0.19047619047619</v>
+      </c>
+      <c r="E747" t="n">
+        <v>1.28571428571429</v>
+      </c>
+      <c r="F747" t="n">
         <v>0.142857142857143</v>
       </c>
-      <c r="D747" t="n">
-        <v>4.80952380952381</v>
-      </c>
-      <c r="E747" t="n">
-        <v>0.0476190476190476</v>
-      </c>
-      <c r="F747" t="n">
-        <v>2.71428571428571</v>
-      </c>
       <c r="G747" t="n">
-        <v>1.19047619047619</v>
+        <v>4.57142857142857</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="1" t="n">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>sparkly</t>
+          <t>speckled</t>
         </is>
       </c>
       <c r="C748" t="n">
-        <v>1.19047619047619</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="D748" t="n">
-        <v>0.19047619047619</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="E748" t="n">
-        <v>1.28571428571429</v>
+        <v>1.42857142857143</v>
       </c>
       <c r="F748" t="n">
-        <v>0.142857142857143</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="G748" t="n">
-        <v>4.57142857142857</v>
+        <v>4.71428571428571</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="1" t="n">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>speckled</t>
+          <t>spicy</t>
         </is>
       </c>
       <c r="C749" t="n">
         <v>0.333333333333333</v>
       </c>
       <c r="D749" t="n">
-        <v>0.142857142857143</v>
+        <v>5</v>
       </c>
       <c r="E749" t="n">
-        <v>1.42857142857143</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="F749" t="n">
-        <v>0.238095238095238</v>
+        <v>4.23809523809524</v>
       </c>
       <c r="G749" t="n">
-        <v>4.71428571428571</v>
+        <v>1.66666666666667</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="1" t="n">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>spicy</t>
+          <t>spiky</t>
         </is>
       </c>
       <c r="C750" t="n">
-        <v>0.333333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="D750" t="n">
-        <v>5</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E750" t="n">
-        <v>0.428571428571429</v>
+        <v>4.85714285714286</v>
       </c>
       <c r="F750" t="n">
-        <v>4.23809523809524</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="G750" t="n">
-        <v>1.66666666666667</v>
+        <v>4.52380952380952</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="1" t="n">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>spiky</t>
+          <t>spilling</t>
         </is>
       </c>
       <c r="C751" t="n">
-        <v>0.666666666666667</v>
+        <v>1.95238095238095</v>
       </c>
       <c r="D751" t="n">
-        <v>0.80952380952381</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="E751" t="n">
-        <v>4.85714285714286</v>
+        <v>2.38095238095238</v>
       </c>
       <c r="F751" t="n">
-        <v>0.142857142857143</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="G751" t="n">
-        <v>4.52380952380952</v>
+        <v>4.42857142857143</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="1" t="n">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>spilling</t>
+          <t>spotless</t>
         </is>
       </c>
       <c r="C752" t="n">
-        <v>1.95238095238095</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="D752" t="n">
-        <v>0.142857142857143</v>
+        <v>0.1</v>
       </c>
       <c r="E752" t="n">
-        <v>2.38095238095238</v>
+        <v>1.76190476190476</v>
       </c>
       <c r="F752" t="n">
-        <v>0.714285714285714</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="G752" t="n">
-        <v>4.42857142857143</v>
+        <v>5</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="1" t="n">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>spotless</t>
+          <t>spotted</t>
         </is>
       </c>
       <c r="C753" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="D753" t="n">
+        <v>0.19047619047619</v>
+      </c>
+      <c r="E753" t="n">
+        <v>1.19047619047619</v>
+      </c>
+      <c r="F753" t="n">
         <v>0.09523809523809521</v>
       </c>
-      <c r="D753" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E753" t="n">
-        <v>1.76190476190476</v>
-      </c>
-      <c r="F753" t="n">
-        <v>0.80952380952381</v>
-      </c>
       <c r="G753" t="n">
-        <v>5</v>
+        <v>4.66666666666667</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="1" t="n">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>spotted</t>
+          <t>square</t>
         </is>
       </c>
       <c r="C754" t="n">
-        <v>0.571428571428571</v>
+        <v>0</v>
       </c>
       <c r="D754" t="n">
-        <v>0.19047619047619</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="E754" t="n">
-        <v>1.19047619047619</v>
+        <v>4</v>
       </c>
       <c r="F754" t="n">
-        <v>0.09523809523809521</v>
+        <v>0</v>
       </c>
       <c r="G754" t="n">
-        <v>4.66666666666667</v>
+        <v>4.42857142857143</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="1" t="n">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>square</t>
+          <t>squeaking</t>
         </is>
       </c>
       <c r="C755" t="n">
-        <v>0</v>
+        <v>4.52380952380952</v>
       </c>
       <c r="D755" t="n">
         <v>0.0476190476190476</v>
       </c>
       <c r="E755" t="n">
-        <v>4</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="F755" t="n">
-        <v>0</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="G755" t="n">
-        <v>4.42857142857143</v>
+        <v>1.38095238095238</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="1" t="n">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>squeaking</t>
+          <t>squealing</t>
         </is>
       </c>
       <c r="C756" t="n">
-        <v>4.52380952380952</v>
+        <v>4.66666666666667</v>
       </c>
       <c r="D756" t="n">
-        <v>0.0476190476190476</v>
+        <v>0</v>
       </c>
       <c r="E756" t="n">
-        <v>0.904761904761905</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="F756" t="n">
-        <v>0.0476190476190476</v>
+        <v>0</v>
       </c>
       <c r="G756" t="n">
-        <v>1.38095238095238</v>
+        <v>2.04761904761905</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="1" t="n">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>squealing</t>
+          <t>stagnant</t>
         </is>
       </c>
       <c r="C757" t="n">
-        <v>4.66666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="D757" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="E757" t="n">
-        <v>0.19047619047619</v>
+        <v>1.05</v>
       </c>
       <c r="F757" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="G757" t="n">
-        <v>2.04761904761905</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="1" t="n">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>stagnant</t>
+          <t>stale</t>
         </is>
       </c>
       <c r="C758" t="n">
-        <v>0.4</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="D758" t="n">
-        <v>1.05</v>
+        <v>4.71428571428571</v>
       </c>
       <c r="E758" t="n">
-        <v>1.05</v>
+        <v>2.71428571428571</v>
       </c>
       <c r="F758" t="n">
-        <v>3.1</v>
+        <v>3.80952380952381</v>
       </c>
       <c r="G758" t="n">
-        <v>3.15</v>
+        <v>3.76190476190476</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="1" t="n">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>stale</t>
+          <t>steep</t>
         </is>
       </c>
       <c r="C759" t="n">
-        <v>0.714285714285714</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="D759" t="n">
-        <v>4.71428571428571</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="E759" t="n">
-        <v>2.71428571428571</v>
+        <v>2.57142857142857</v>
       </c>
       <c r="F759" t="n">
-        <v>3.80952380952381</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="G759" t="n">
-        <v>3.76190476190476</v>
+        <v>4.95238095238095</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="1" t="n">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>steep</t>
+          <t>stenchy</t>
         </is>
       </c>
       <c r="C760" t="n">
-        <v>0.857142857142857</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="D760" t="n">
-        <v>0.09523809523809521</v>
+        <v>1.52380952380952</v>
       </c>
       <c r="E760" t="n">
-        <v>2.57142857142857</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="F760" t="n">
-        <v>0.09523809523809521</v>
+        <v>4.90476190476191</v>
       </c>
       <c r="G760" t="n">
-        <v>4.95238095238095</v>
+        <v>1.9047619047619</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="1" t="n">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>stenchy</t>
+          <t>sticky</t>
         </is>
       </c>
       <c r="C761" t="n">
-        <v>0.333333333333333</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="D761" t="n">
-        <v>1.52380952380952</v>
+        <v>2.38095238095238</v>
       </c>
       <c r="E761" t="n">
-        <v>0.19047619047619</v>
+        <v>4.61904761904762</v>
       </c>
       <c r="F761" t="n">
-        <v>4.90476190476191</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="G761" t="n">
-        <v>1.9047619047619</v>
+        <v>3.0952380952381</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="1" t="n">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>sticky</t>
+          <t>stinging</t>
         </is>
       </c>
       <c r="C762" t="n">
+        <v>0.380952380952381</v>
+      </c>
+      <c r="D762" t="n">
+        <v>0.142857142857143</v>
+      </c>
+      <c r="E762" t="n">
+        <v>4.66666666666667</v>
+      </c>
+      <c r="F762" t="n">
         <v>0.0476190476190476</v>
       </c>
-      <c r="D762" t="n">
-        <v>2.38095238095238</v>
-      </c>
-      <c r="E762" t="n">
-        <v>4.61904761904762</v>
-      </c>
-      <c r="F762" t="n">
-        <v>0.428571428571429</v>
-      </c>
       <c r="G762" t="n">
-        <v>3.0952380952381</v>
+        <v>1.76190476190476</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="1" t="n">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>stinging</t>
+          <t>stinky</t>
         </is>
       </c>
       <c r="C763" t="n">
-        <v>0.380952380952381</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="D763" t="n">
-        <v>0.142857142857143</v>
+        <v>1.95238095238095</v>
       </c>
       <c r="E763" t="n">
-        <v>4.66666666666667</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="F763" t="n">
-        <v>0.0476190476190476</v>
+        <v>4.76190476190476</v>
       </c>
       <c r="G763" t="n">
-        <v>1.76190476190476</v>
+        <v>1.47619047619048</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="1" t="n">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>stinky</t>
+          <t>stormy</t>
         </is>
       </c>
       <c r="C764" t="n">
-        <v>0.238095238095238</v>
+        <v>4.33333333333333</v>
       </c>
       <c r="D764" t="n">
-        <v>1.95238095238095</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="E764" t="n">
-        <v>0.09523809523809521</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="F764" t="n">
-        <v>4.76190476190476</v>
+        <v>1.2</v>
       </c>
       <c r="G764" t="n">
-        <v>1.47619047619048</v>
+        <v>4.33333333333333</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="1" t="n">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>stormy</t>
+          <t>straight</t>
         </is>
       </c>
       <c r="C765" t="n">
-        <v>4.33333333333333</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="D765" t="n">
+        <v>0.09523809523809521</v>
+      </c>
+      <c r="E765" t="n">
+        <v>4</v>
+      </c>
+      <c r="F765" t="n">
         <v>0.0476190476190476</v>
       </c>
-      <c r="E765" t="n">
-        <v>0.428571428571429</v>
-      </c>
-      <c r="F765" t="n">
-        <v>1.2</v>
-      </c>
       <c r="G765" t="n">
-        <v>4.33333333333333</v>
+        <v>4.90476190476191</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="1" t="n">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>straight</t>
+          <t>strange</t>
         </is>
       </c>
       <c r="C766" t="n">
-        <v>0.19047619047619</v>
+        <v>3.38095238095238</v>
       </c>
       <c r="D766" t="n">
-        <v>0.09523809523809521</v>
+        <v>3.47619047619048</v>
       </c>
       <c r="E766" t="n">
-        <v>4</v>
+        <v>2.52380952380952</v>
       </c>
       <c r="F766" t="n">
-        <v>0.0476190476190476</v>
+        <v>3.33333333333333</v>
       </c>
       <c r="G766" t="n">
-        <v>4.90476190476191</v>
+        <v>4.14285714285714</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="1" t="n">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>strange</t>
+          <t>striped</t>
         </is>
       </c>
       <c r="C767" t="n">
-        <v>3.38095238095238</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="D767" t="n">
-        <v>3.47619047619048</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="E767" t="n">
-        <v>2.52380952380952</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="F767" t="n">
-        <v>3.33333333333333</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="G767" t="n">
-        <v>4.14285714285714</v>
+        <v>4.52380952380952</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="1" t="n">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>striped</t>
+          <t>strong</t>
         </is>
       </c>
       <c r="C768" t="n">
-        <v>0.285714285714286</v>
+        <v>1.9047619047619</v>
       </c>
       <c r="D768" t="n">
-        <v>0.09523809523809521</v>
+        <v>3.28571428571429</v>
       </c>
       <c r="E768" t="n">
-        <v>0.904761904761905</v>
+        <v>3.71428571428571</v>
       </c>
       <c r="F768" t="n">
-        <v>0.0476190476190476</v>
+        <v>3</v>
       </c>
       <c r="G768" t="n">
-        <v>4.52380952380952</v>
+        <v>3.9047619047619</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="1" t="n">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>strong</t>
+          <t>sturdy</t>
         </is>
       </c>
       <c r="C769" t="n">
-        <v>1.9047619047619</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="D769" t="n">
-        <v>3.28571428571429</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="E769" t="n">
-        <v>3.71428571428571</v>
+        <v>4.19047619047619</v>
       </c>
       <c r="F769" t="n">
-        <v>3</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="G769" t="n">
-        <v>3.9047619047619</v>
+        <v>4.14285714285714</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="1" t="n">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>sturdy</t>
+          <t>sunny</t>
         </is>
       </c>
       <c r="C770" t="n">
-        <v>0.761904761904762</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="D770" t="n">
+        <v>0.09523809523809521</v>
+      </c>
+      <c r="E770" t="n">
+        <v>0.952380952380952</v>
+      </c>
+      <c r="F770" t="n">
         <v>0.285714285714286</v>
       </c>
-      <c r="E770" t="n">
-        <v>4.19047619047619</v>
-      </c>
-      <c r="F770" t="n">
-        <v>0.238095238095238</v>
-      </c>
       <c r="G770" t="n">
-        <v>4.14285714285714</v>
+        <v>4.95238095238095</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="1" t="n">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>sweaty</t>
         </is>
       </c>
       <c r="C771" t="n">
-        <v>0.285714285714286</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="D771" t="n">
-        <v>0.09523809523809521</v>
+        <v>1.42857142857143</v>
       </c>
       <c r="E771" t="n">
-        <v>0.952380952380952</v>
+        <v>3.52380952380952</v>
       </c>
       <c r="F771" t="n">
-        <v>0.285714285714286</v>
+        <v>4.04761904761905</v>
       </c>
       <c r="G771" t="n">
-        <v>4.95238095238095</v>
+        <v>3.80952380952381</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="1" t="n">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>sweaty</t>
+          <t>sweet</t>
         </is>
       </c>
       <c r="C772" t="n">
-        <v>0.238095238095238</v>
+        <v>1.19047619047619</v>
       </c>
       <c r="D772" t="n">
-        <v>1.42857142857143</v>
+        <v>4.85714285714286</v>
       </c>
       <c r="E772" t="n">
-        <v>3.52380952380952</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="F772" t="n">
-        <v>4.04761904761905</v>
+        <v>3.9047619047619</v>
       </c>
       <c r="G772" t="n">
-        <v>3.80952380952381</v>
+        <v>2.19047619047619</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="1" t="n">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>sweet</t>
+          <t>swift</t>
         </is>
       </c>
       <c r="C773" t="n">
-        <v>1.19047619047619</v>
+        <v>2.85714285714286</v>
       </c>
       <c r="D773" t="n">
-        <v>4.85714285714286</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="E773" t="n">
-        <v>0.571428571428571</v>
+        <v>1.23809523809524</v>
       </c>
       <c r="F773" t="n">
-        <v>3.9047619047619</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="G773" t="n">
-        <v>2.19047619047619</v>
+        <v>4.57142857142857</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="1" t="n">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>swift</t>
+          <t>swinging</t>
         </is>
       </c>
       <c r="C774" t="n">
-        <v>2.85714285714286</v>
+        <v>1.57142857142857</v>
       </c>
       <c r="D774" t="n">
         <v>0.09523809523809521</v>
       </c>
       <c r="E774" t="n">
-        <v>1.23809523809524</v>
+        <v>2.66666666666667</v>
       </c>
       <c r="F774" t="n">
-        <v>0.238095238095238</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="G774" t="n">
-        <v>4.57142857142857</v>
+        <v>4.42857142857143</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" s="1" t="n">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>swinging</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="C775" t="n">
-        <v>1.57142857142857</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="D775" t="n">
-        <v>0.09523809523809521</v>
+        <v>0</v>
       </c>
       <c r="E775" t="n">
-        <v>2.66666666666667</v>
+        <v>2.71428571428571</v>
       </c>
       <c r="F775" t="n">
-        <v>0.09523809523809521</v>
+        <v>0</v>
       </c>
       <c r="G775" t="n">
-        <v>4.42857142857143</v>
+        <v>4.90476190476191</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="1" t="n">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>tangerine</t>
         </is>
       </c>
       <c r="C776" t="n">
-        <v>0.19047619047619</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="D776" t="n">
-        <v>0</v>
+        <v>4.19047619047619</v>
       </c>
       <c r="E776" t="n">
-        <v>2.71428571428571</v>
+        <v>2.0952380952381</v>
       </c>
       <c r="F776" t="n">
-        <v>0</v>
+        <v>3.23809523809524</v>
       </c>
       <c r="G776" t="n">
-        <v>4.90476190476191</v>
+        <v>4.33333333333333</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="1" t="n">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>tangerine</t>
+          <t>tangy</t>
         </is>
       </c>
       <c r="C777" t="n">
-        <v>0.285714285714286</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="D777" t="n">
-        <v>4.19047619047619</v>
+        <v>4.75</v>
       </c>
       <c r="E777" t="n">
-        <v>2.0952380952381</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="F777" t="n">
-        <v>3.23809523809524</v>
+        <v>3.0952380952381</v>
       </c>
       <c r="G777" t="n">
-        <v>4.33333333333333</v>
+        <v>0.80952380952381</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" s="1" t="n">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>tangy</t>
+          <t>tapering</t>
         </is>
       </c>
       <c r="C778" t="n">
-        <v>0.19047619047619</v>
+        <v>0.6</v>
       </c>
       <c r="D778" t="n">
-        <v>4.75</v>
+        <v>0.2</v>
       </c>
       <c r="E778" t="n">
-        <v>0.19047619047619</v>
+        <v>3</v>
       </c>
       <c r="F778" t="n">
-        <v>3.0952380952381</v>
+        <v>0.2</v>
       </c>
       <c r="G778" t="n">
-        <v>0.80952380952381</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="1" t="n">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>tapering</t>
+          <t>tarry</t>
         </is>
       </c>
       <c r="C779" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D779" t="n">
-        <v>0.2</v>
+        <v>0.470588235294118</v>
       </c>
       <c r="E779" t="n">
-        <v>3</v>
+        <v>2.41176470588235</v>
       </c>
       <c r="F779" t="n">
-        <v>0.2</v>
+        <v>2.23529411764706</v>
       </c>
       <c r="G779" t="n">
-        <v>3.4</v>
+        <v>3.88235294117647</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" s="1" t="n">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>tarry</t>
+          <t>tart</t>
         </is>
       </c>
       <c r="C780" t="n">
-        <v>0</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="D780" t="n">
-        <v>0.470588235294118</v>
+        <v>4.15789473684211</v>
       </c>
       <c r="E780" t="n">
-        <v>2.41176470588235</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="F780" t="n">
-        <v>2.23529411764706</v>
+        <v>1.89473684210526</v>
       </c>
       <c r="G780" t="n">
-        <v>3.88235294117647</v>
+        <v>2.42105263157895</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" s="1" t="n">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>tart</t>
+          <t>tasteless</t>
         </is>
       </c>
       <c r="C781" t="n">
-        <v>0.105263157894737</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="D781" t="n">
-        <v>4.15789473684211</v>
+        <v>4.33333333333333</v>
       </c>
       <c r="E781" t="n">
-        <v>0.842105263157895</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="F781" t="n">
-        <v>1.89473684210526</v>
+        <v>3.23809523809524</v>
       </c>
       <c r="G781" t="n">
-        <v>2.42105263157895</v>
+        <v>1.0952380952381</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" s="1" t="n">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>tasteless</t>
+          <t>tasty</t>
         </is>
       </c>
       <c r="C782" t="n">
+        <v>0.19047619047619</v>
+      </c>
+      <c r="D782" t="n">
+        <v>5</v>
+      </c>
+      <c r="E782" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="D782" t="n">
-        <v>4.33333333333333</v>
-      </c>
-      <c r="E782" t="n">
-        <v>0.19047619047619</v>
-      </c>
       <c r="F782" t="n">
-        <v>3.23809523809524</v>
+        <v>3.9047619047619</v>
       </c>
       <c r="G782" t="n">
-        <v>1.0952380952381</v>
+        <v>2.76190476190476</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" s="1" t="n">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>tasty</t>
+          <t>tender</t>
         </is>
       </c>
       <c r="C783" t="n">
-        <v>0.19047619047619</v>
+        <v>1.61904761904762</v>
       </c>
       <c r="D783" t="n">
-        <v>5</v>
+        <v>2.61904761904762</v>
       </c>
       <c r="E783" t="n">
-        <v>0.333333333333333</v>
+        <v>3.95238095238095</v>
       </c>
       <c r="F783" t="n">
-        <v>3.9047619047619</v>
+        <v>1.23809523809524</v>
       </c>
       <c r="G783" t="n">
-        <v>2.76190476190476</v>
+        <v>3</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" s="1" t="n">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>tender</t>
+          <t>tepid</t>
         </is>
       </c>
       <c r="C784" t="n">
-        <v>1.61904761904762</v>
+        <v>0.315789473684211</v>
       </c>
       <c r="D784" t="n">
-        <v>2.61904761904762</v>
+        <v>1.36842105263158</v>
       </c>
       <c r="E784" t="n">
-        <v>3.95238095238095</v>
+        <v>3.68421052631579</v>
       </c>
       <c r="F784" t="n">
-        <v>1.23809523809524</v>
+        <v>0.473684210526316</v>
       </c>
       <c r="G784" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" s="1" t="n">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>tepid</t>
+          <t>thorny</t>
         </is>
       </c>
       <c r="C785" t="n">
-        <v>0.315789473684211</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="D785" t="n">
-        <v>1.36842105263158</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E785" t="n">
-        <v>3.68421052631579</v>
+        <v>4.90476190476191</v>
       </c>
       <c r="F785" t="n">
-        <v>0.473684210526316</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="G785" t="n">
-        <v>1</v>
+        <v>4.42857142857143</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" s="1" t="n">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>thorny</t>
+          <t>thudding</t>
         </is>
       </c>
       <c r="C786" t="n">
-        <v>0.761904761904762</v>
+        <v>4.57142857142857</v>
       </c>
       <c r="D786" t="n">
-        <v>0.761904761904762</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="E786" t="n">
-        <v>4.90476190476191</v>
+        <v>2.23809523809524</v>
       </c>
       <c r="F786" t="n">
-        <v>0.238095238095238</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="G786" t="n">
-        <v>4.42857142857143</v>
+        <v>2.85714285714286</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" s="1" t="n">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>thudding</t>
+          <t>thumping</t>
         </is>
       </c>
       <c r="C787" t="n">
-        <v>4.57142857142857</v>
+        <v>3.9047619047619</v>
       </c>
       <c r="D787" t="n">
-        <v>0.0476190476190476</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="E787" t="n">
-        <v>2.23809523809524</v>
+        <v>2.52380952380952</v>
       </c>
       <c r="F787" t="n">
-        <v>0.0476190476190476</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="G787" t="n">
-        <v>2.85714285714286</v>
+        <v>2.61904761904762</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="1" t="n">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>thumping</t>
+          <t>thunderous</t>
         </is>
       </c>
       <c r="C788" t="n">
-        <v>3.9047619047619</v>
+        <v>4.52380952380952</v>
       </c>
       <c r="D788" t="n">
-        <v>0.142857142857143</v>
+        <v>0</v>
       </c>
       <c r="E788" t="n">
-        <v>2.52380952380952</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="F788" t="n">
-        <v>0.19047619047619</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="G788" t="n">
-        <v>2.61904761904762</v>
+        <v>3.14285714285714</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="1" t="n">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>thunderous</t>
+          <t>ticklish</t>
         </is>
       </c>
       <c r="C789" t="n">
-        <v>4.52380952380952</v>
+        <v>1.0952380952381</v>
       </c>
       <c r="D789" t="n">
-        <v>0</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="E789" t="n">
-        <v>0.380952380952381</v>
+        <v>4.66666666666667</v>
       </c>
       <c r="F789" t="n">
-        <v>0.380952380952381</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="G789" t="n">
-        <v>3.14285714285714</v>
+        <v>2.66666666666667</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" s="1" t="n">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>ticklish</t>
+          <t>tight</t>
         </is>
       </c>
       <c r="C790" t="n">
-        <v>1.0952380952381</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="D790" t="n">
-        <v>0.19047619047619</v>
+        <v>0</v>
       </c>
       <c r="E790" t="n">
-        <v>4.66666666666667</v>
+        <v>4.14285714285714</v>
       </c>
       <c r="F790" t="n">
-        <v>0.142857142857143</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="G790" t="n">
-        <v>2.66666666666667</v>
+        <v>3.9047619047619</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" s="1" t="n">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>tight</t>
+          <t>tingly</t>
         </is>
       </c>
       <c r="C791" t="n">
-        <v>0.714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="D791" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="E791" t="n">
-        <v>4.14285714285714</v>
+        <v>4.8</v>
       </c>
       <c r="F791" t="n">
-        <v>0.09523809523809521</v>
+        <v>0.4</v>
       </c>
       <c r="G791" t="n">
-        <v>3.9047619047619</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" s="1" t="n">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>tingly</t>
+          <t>tinkling</t>
         </is>
       </c>
       <c r="C792" t="n">
-        <v>0.5</v>
+        <v>4.15</v>
       </c>
       <c r="D792" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="E792" t="n">
-        <v>4.8</v>
+        <v>1.5</v>
       </c>
       <c r="F792" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G792" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" s="1" t="n">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>tinkling</t>
+          <t>tiny</t>
         </is>
       </c>
       <c r="C793" t="n">
-        <v>4.15</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="D793" t="n">
-        <v>0</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="E793" t="n">
-        <v>1.5</v>
+        <v>3.33333333333333</v>
       </c>
       <c r="F793" t="n">
-        <v>0.2</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="G793" t="n">
-        <v>1.8</v>
+        <v>4.61904761904762</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="1" t="n">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>tiny</t>
+          <t>tough</t>
         </is>
       </c>
       <c r="C794" t="n">
-        <v>0.619047619047619</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="D794" t="n">
-        <v>0.238095238095238</v>
+        <v>2.14285714285714</v>
       </c>
       <c r="E794" t="n">
-        <v>3.33333333333333</v>
+        <v>3.76190476190476</v>
       </c>
       <c r="F794" t="n">
-        <v>0.0476190476190476</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="G794" t="n">
-        <v>4.61904761904762</v>
+        <v>3.38095238095238</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" s="1" t="n">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>tough</t>
+          <t>translucent</t>
         </is>
       </c>
       <c r="C795" t="n">
-        <v>0.571428571428571</v>
+        <v>0.421052631578947</v>
       </c>
       <c r="D795" t="n">
-        <v>2.14285714285714</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="E795" t="n">
-        <v>3.76190476190476</v>
+        <v>1.05263157894737</v>
       </c>
       <c r="F795" t="n">
-        <v>0.142857142857143</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="G795" t="n">
-        <v>3.38095238095238</v>
+        <v>4.68421052631579</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" s="1" t="n">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>translucent</t>
+          <t>transparent</t>
         </is>
       </c>
       <c r="C796" t="n">
-        <v>0.421052631578947</v>
+        <v>0.25</v>
       </c>
       <c r="D796" t="n">
-        <v>0.210526315789474</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="E796" t="n">
-        <v>1.05263157894737</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="F796" t="n">
-        <v>0.210526315789474</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="G796" t="n">
-        <v>4.68421052631579</v>
+        <v>4.80952380952381</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" s="1" t="n">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>transparent</t>
+          <t>triangular</t>
         </is>
       </c>
       <c r="C797" t="n">
-        <v>0.25</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="D797" t="n">
-        <v>0.142857142857143</v>
+        <v>0</v>
       </c>
       <c r="E797" t="n">
-        <v>0.619047619047619</v>
+        <v>3.57142857142857</v>
       </c>
       <c r="F797" t="n">
-        <v>0.142857142857143</v>
+        <v>0</v>
       </c>
       <c r="G797" t="n">
-        <v>4.80952380952381</v>
+        <v>4.61904761904762</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" s="1" t="n">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>triangular</t>
+          <t>ugly</t>
         </is>
       </c>
       <c r="C798" t="n">
-        <v>0.285714285714286</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="D798" t="n">
-        <v>0</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E798" t="n">
-        <v>3.57142857142857</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="F798" t="n">
-        <v>0</v>
+        <v>1.14285714285714</v>
       </c>
       <c r="G798" t="n">
-        <v>4.61904761904762</v>
+        <v>5</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" s="1" t="n">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>ugly</t>
+          <t>uneven</t>
         </is>
       </c>
       <c r="C799" t="n">
-        <v>0.857142857142857</v>
+        <v>1.52380952380952</v>
       </c>
       <c r="D799" t="n">
-        <v>0.714285714285714</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="E799" t="n">
-        <v>1.66666666666667</v>
+        <v>4.28571428571429</v>
       </c>
       <c r="F799" t="n">
-        <v>1.14285714285714</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="G799" t="n">
-        <v>5</v>
+        <v>4.57142857142857</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" s="1" t="n">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>uneven</t>
+          <t>unpalatable</t>
         </is>
       </c>
       <c r="C800" t="n">
-        <v>1.52380952380952</v>
+        <v>0.235294117647059</v>
       </c>
       <c r="D800" t="n">
-        <v>0.428571428571429</v>
+        <v>4.76470588235294</v>
       </c>
       <c r="E800" t="n">
-        <v>4.28571428571429</v>
+        <v>1.35294117647059</v>
       </c>
       <c r="F800" t="n">
-        <v>0.428571428571429</v>
+        <v>3.70588235294118</v>
       </c>
       <c r="G800" t="n">
-        <v>4.57142857142857</v>
+        <v>3.52941176470588</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" s="1" t="n">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>unpalatable</t>
+          <t>unripe</t>
         </is>
       </c>
       <c r="C801" t="n">
-        <v>0.235294117647059</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="D801" t="n">
-        <v>4.76470588235294</v>
+        <v>3.95238095238095</v>
       </c>
       <c r="E801" t="n">
-        <v>1.35294117647059</v>
+        <v>3.42857142857143</v>
       </c>
       <c r="F801" t="n">
-        <v>3.70588235294118</v>
+        <v>2.66666666666667</v>
       </c>
       <c r="G801" t="n">
-        <v>3.52941176470588</v>
+        <v>4.14285714285714</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="1" t="n">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>unripe</t>
+          <t>vegetal</t>
         </is>
       </c>
       <c r="C802" t="n">
-        <v>0.285714285714286</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="D802" t="n">
-        <v>3.95238095238095</v>
+        <v>3.27272727272727</v>
       </c>
       <c r="E802" t="n">
-        <v>3.42857142857143</v>
+        <v>1.45454545454545</v>
       </c>
       <c r="F802" t="n">
-        <v>2.66666666666667</v>
+        <v>2.6</v>
       </c>
       <c r="G802" t="n">
-        <v>4.14285714285714</v>
+        <v>3.90909090909091</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" s="1" t="n">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>vegetal</t>
+          <t>vinegary</t>
         </is>
       </c>
       <c r="C803" t="n">
-        <v>0.181818181818182</v>
+        <v>0</v>
       </c>
       <c r="D803" t="n">
-        <v>3.27272727272727</v>
+        <v>4.95238095238095</v>
       </c>
       <c r="E803" t="n">
-        <v>1.45454545454545</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="F803" t="n">
-        <v>2.6</v>
+        <v>4.19047619047619</v>
       </c>
       <c r="G803" t="n">
-        <v>3.90909090909091</v>
+        <v>1.76190476190476</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" s="1" t="n">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>vinegary</t>
+          <t>vivid</t>
         </is>
       </c>
       <c r="C804" t="n">
-        <v>0</v>
+        <v>2.52380952380952</v>
       </c>
       <c r="D804" t="n">
-        <v>4.95238095238095</v>
+        <v>1.71428571428571</v>
       </c>
       <c r="E804" t="n">
-        <v>0.380952380952381</v>
+        <v>1.19047619047619</v>
       </c>
       <c r="F804" t="n">
-        <v>4.19047619047619</v>
+        <v>1.61904761904762</v>
       </c>
       <c r="G804" t="n">
-        <v>1.76190476190476</v>
+        <v>4.52380952380952</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" s="1" t="n">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>vivid</t>
+          <t>wailing</t>
         </is>
       </c>
       <c r="C805" t="n">
-        <v>2.52380952380952</v>
+        <v>4.95</v>
       </c>
       <c r="D805" t="n">
-        <v>1.71428571428571</v>
+        <v>0.15</v>
       </c>
       <c r="E805" t="n">
-        <v>1.19047619047619</v>
+        <v>0.25</v>
       </c>
       <c r="F805" t="n">
-        <v>1.61904761904762</v>
+        <v>0.1</v>
       </c>
       <c r="G805" t="n">
-        <v>4.52380952380952</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" s="1" t="n">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>wailing</t>
+          <t>warbling</t>
         </is>
       </c>
       <c r="C806" t="n">
-        <v>4.95</v>
+        <v>3.9375</v>
       </c>
       <c r="D806" t="n">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="E806" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="F806" t="n">
         <v>0.25</v>
       </c>
-      <c r="F806" t="n">
-        <v>0.1</v>
-      </c>
       <c r="G806" t="n">
-        <v>2.85</v>
+        <v>1.9375</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" s="1" t="n">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>warbling</t>
+          <t>warm</t>
         </is>
       </c>
       <c r="C807" t="n">
-        <v>3.9375</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="D807" t="n">
-        <v>0.25</v>
+        <v>2.85714285714286</v>
       </c>
       <c r="E807" t="n">
-        <v>0.8125</v>
+        <v>4.80952380952381</v>
       </c>
       <c r="F807" t="n">
-        <v>0.25</v>
+        <v>1.14285714285714</v>
       </c>
       <c r="G807" t="n">
-        <v>1.9375</v>
+        <v>2.38095238095238</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" s="1" t="n">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>warm</t>
+          <t>waxy</t>
         </is>
       </c>
       <c r="C808" t="n">
         <v>0.619047619047619</v>
       </c>
       <c r="D808" t="n">
-        <v>2.85714285714286</v>
+        <v>1.61904761904762</v>
       </c>
       <c r="E808" t="n">
-        <v>4.80952380952381</v>
+        <v>4.66666666666667</v>
       </c>
       <c r="F808" t="n">
-        <v>1.14285714285714</v>
+        <v>2.14285714285714</v>
       </c>
       <c r="G808" t="n">
-        <v>2.38095238095238</v>
+        <v>4</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" s="1" t="n">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>waxy</t>
+          <t>weak</t>
         </is>
       </c>
       <c r="C809" t="n">
-        <v>0.619047619047619</v>
+        <v>1.85714285714286</v>
       </c>
       <c r="D809" t="n">
-        <v>1.61904761904762</v>
+        <v>2.14285714285714</v>
       </c>
       <c r="E809" t="n">
-        <v>4.66666666666667</v>
+        <v>3.19047619047619</v>
       </c>
       <c r="F809" t="n">
-        <v>2.14285714285714</v>
+        <v>1.42857142857143</v>
       </c>
       <c r="G809" t="n">
-        <v>4</v>
+        <v>3.66666666666667</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" s="1" t="n">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>weak</t>
+          <t>weightless</t>
         </is>
       </c>
       <c r="C810" t="n">
-        <v>1.85714285714286</v>
+        <v>1.23809523809524</v>
       </c>
       <c r="D810" t="n">
-        <v>2.14285714285714</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="E810" t="n">
-        <v>3.19047619047619</v>
+        <v>4.28571428571429</v>
       </c>
       <c r="F810" t="n">
-        <v>1.42857142857143</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="G810" t="n">
-        <v>3.66666666666667</v>
+        <v>3.04761904761905</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" s="1" t="n">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>weightless</t>
+          <t>wet</t>
         </is>
       </c>
       <c r="C811" t="n">
-        <v>1.23809523809524</v>
+        <v>1.85714285714286</v>
       </c>
       <c r="D811" t="n">
-        <v>0.285714285714286</v>
+        <v>1.71428571428571</v>
       </c>
       <c r="E811" t="n">
-        <v>4.28571428571429</v>
+        <v>4.66666666666667</v>
       </c>
       <c r="F811" t="n">
-        <v>0.142857142857143</v>
+        <v>1.80952380952381</v>
       </c>
       <c r="G811" t="n">
-        <v>3.04761904761905</v>
+        <v>4.33333333333333</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" s="1" t="n">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>whiffy</t>
         </is>
       </c>
       <c r="C812" t="n">
-        <v>1.85714285714286</v>
+        <v>0.3</v>
       </c>
       <c r="D812" t="n">
-        <v>1.71428571428571</v>
+        <v>1.5</v>
       </c>
       <c r="E812" t="n">
-        <v>4.66666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="F812" t="n">
-        <v>1.80952380952381</v>
+        <v>4.9</v>
       </c>
       <c r="G812" t="n">
-        <v>4.33333333333333</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" s="1" t="n">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>whiffy</t>
+          <t>whimpering</t>
         </is>
       </c>
       <c r="C813" t="n">
-        <v>0.3</v>
+        <v>4.80952380952381</v>
       </c>
       <c r="D813" t="n">
-        <v>1.5</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="E813" t="n">
-        <v>0.2</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="F813" t="n">
-        <v>4.9</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="G813" t="n">
-        <v>0.95</v>
+        <v>3.14285714285714</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" s="1" t="n">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>whimpering</t>
+          <t>whining</t>
         </is>
       </c>
       <c r="C814" t="n">
-        <v>4.80952380952381</v>
+        <v>4.85714285714286</v>
       </c>
       <c r="D814" t="n">
-        <v>0.0476190476190476</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="E814" t="n">
-        <v>0.380952380952381</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="F814" t="n">
-        <v>0.19047619047619</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="G814" t="n">
-        <v>3.14285714285714</v>
+        <v>2.47619047619048</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" s="1" t="n">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>whining</t>
+          <t>whispering</t>
         </is>
       </c>
       <c r="C815" t="n">
-        <v>4.85714285714286</v>
+        <v>4.66666666666667</v>
       </c>
       <c r="D815" t="n">
-        <v>0.09523809523809521</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="E815" t="n">
-        <v>0.142857142857143</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="F815" t="n">
         <v>0.09523809523809521</v>
       </c>
       <c r="G815" t="n">
-        <v>2.47619047619048</v>
+        <v>2.42857142857143</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" s="1" t="n">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>whispering</t>
+          <t>whistling</t>
         </is>
       </c>
       <c r="C816" t="n">
-        <v>4.66666666666667</v>
+        <v>4.95238095238095</v>
       </c>
       <c r="D816" t="n">
-        <v>0.0476190476190476</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="E816" t="n">
-        <v>0.238095238095238</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="F816" t="n">
         <v>0.09523809523809521</v>
       </c>
       <c r="G816" t="n">
-        <v>2.42857142857143</v>
+        <v>2.04761904761905</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" s="1" t="n">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>whistling</t>
+          <t>white</t>
         </is>
       </c>
       <c r="C817" t="n">
-        <v>4.95238095238095</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="D817" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E817" t="n">
         <v>0.09523809523809521</v>
       </c>
-      <c r="E817" t="n">
-        <v>0.285714285714286</v>
-      </c>
       <c r="F817" t="n">
-        <v>0.09523809523809521</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="G817" t="n">
-        <v>2.04761904761905</v>
+        <v>4.57142857142857</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" s="1" t="n">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>wide</t>
         </is>
       </c>
       <c r="C818" t="n">
-        <v>0.238095238095238</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="D818" t="n">
-        <v>0.1</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="E818" t="n">
-        <v>0.09523809523809521</v>
+        <v>3.66666666666667</v>
       </c>
       <c r="F818" t="n">
         <v>0.142857142857143</v>
       </c>
       <c r="G818" t="n">
-        <v>4.57142857142857</v>
+        <v>4.80952380952381</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" s="1" t="n">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>wide</t>
+          <t>wiry</t>
         </is>
       </c>
       <c r="C819" t="n">
-        <v>0.476190476190476</v>
+        <v>1.04761904761905</v>
       </c>
       <c r="D819" t="n">
+        <v>0.761904761904762</v>
+      </c>
+      <c r="E819" t="n">
+        <v>4.09523809523809</v>
+      </c>
+      <c r="F819" t="n">
         <v>0.285714285714286</v>
       </c>
-      <c r="E819" t="n">
-        <v>3.66666666666667</v>
-      </c>
-      <c r="F819" t="n">
-        <v>0.142857142857143</v>
-      </c>
       <c r="G819" t="n">
-        <v>4.80952380952381</v>
+        <v>4.19047619047619</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" s="1" t="n">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>wiry</t>
+          <t>wispy</t>
         </is>
       </c>
       <c r="C820" t="n">
-        <v>1.04761904761905</v>
+        <v>1.63157894736842</v>
       </c>
       <c r="D820" t="n">
-        <v>0.761904761904762</v>
+        <v>0.8947368421052631</v>
       </c>
       <c r="E820" t="n">
-        <v>4.09523809523809</v>
+        <v>3.26315789473684</v>
       </c>
       <c r="F820" t="n">
-        <v>0.285714285714286</v>
+        <v>0.263157894736842</v>
       </c>
       <c r="G820" t="n">
-        <v>4.19047619047619</v>
+        <v>4.21052631578947</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" s="1" t="n">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>wispy</t>
+          <t>wizened</t>
         </is>
       </c>
       <c r="C821" t="n">
-        <v>1.63157894736842</v>
+        <v>2.9</v>
       </c>
       <c r="D821" t="n">
-        <v>0.8947368421052631</v>
+        <v>0.1</v>
       </c>
       <c r="E821" t="n">
-        <v>3.26315789473684</v>
+        <v>0.8</v>
       </c>
       <c r="F821" t="n">
-        <v>0.263157894736842</v>
+        <v>0.3</v>
       </c>
       <c r="G821" t="n">
-        <v>4.21052631578947</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" s="1" t="n">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>wizened</t>
+          <t>woolly</t>
         </is>
       </c>
       <c r="C822" t="n">
-        <v>2.9</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="D822" t="n">
-        <v>0.1</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="E822" t="n">
-        <v>0.8</v>
+        <v>4.42857142857143</v>
       </c>
       <c r="F822" t="n">
-        <v>0.3</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="G822" t="n">
-        <v>3.1</v>
+        <v>4.28571428571429</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" s="1" t="n">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>woolly</t>
+          <t>yellow</t>
         </is>
       </c>
       <c r="C823" t="n">
-        <v>0.142857142857143</v>
+        <v>0.15</v>
       </c>
       <c r="D823" t="n">
-        <v>0.142857142857143</v>
+        <v>0.05</v>
       </c>
       <c r="E823" t="n">
-        <v>4.42857142857143</v>
+        <v>0</v>
       </c>
       <c r="F823" t="n">
-        <v>0.142857142857143</v>
+        <v>0.05</v>
       </c>
       <c r="G823" t="n">
-        <v>4.28571428571429</v>
-      </c>
-    </row>
-    <row r="824">
-      <c r="A824" s="1" t="n">
-        <v>822</v>
-      </c>
-      <c r="B824" t="inlineStr">
-        <is>
-          <t>yellow</t>
-        </is>
-      </c>
-      <c r="C824" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D824" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E824" t="n">
-        <v>0</v>
-      </c>
-      <c r="F824" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="G824" t="n">
         <v>4.9</v>
       </c>
     </row>
